--- a/data/solubility/Aquaponics - Masterfile Nutrients.xlsx
+++ b/data/solubility/Aquaponics - Masterfile Nutrients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/Projekt18 - PhD-Aquaponics/2 - Nutrient Solubility/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/Projekt18 - PhD-Aquaponics/data/solubility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A97B62-C923-F04E-BAD9-EC3AEC28C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EEDD6B-918F-7946-B643-C02BD6DCBB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="24720" windowHeight="15500" tabRatio="956" firstSheet="2" activeTab="5" xr2:uid="{5855CA20-A45B-EF4D-A216-6F07AE6CF6F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="956" firstSheet="7" activeTab="16" xr2:uid="{5855CA20-A45B-EF4D-A216-6F07AE6CF6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="important notes" sheetId="1" r:id="rId1"/>
@@ -4452,19 +4452,8 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Biomass related to rearing part only</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          </rPr>
+          <t xml:space="preserve">Biomass related to rearing part only
 </t>
         </r>
       </text>
@@ -14235,7 +14224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14265,7 +14254,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -14349,6 +14337,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14376,6 +14367,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -14391,16 +14392,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17203,7 +17194,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{713B421E-3016-4993-8813-5FAFECEBF423}" name="Table1" displayName="Table1" ref="A1:BE48" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{713B421E-3016-4993-8813-5FAFECEBF423}" name="Table1" displayName="Table1" ref="A1:BE48" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:BE48" xr:uid="{713B421E-3016-4993-8813-5FAFECEBF423}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BE47">
     <sortCondition ref="A1:A47"/>
@@ -17304,7 +17295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17592,7 +17583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18027,7 +18018,7 @@
         <f>MIN(feedIN!F3:F196)</f>
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="93">
         <f>MIN(feedIN!G3:G196)</f>
         <v>1.0387755102040817E-2</v>
       </c>
@@ -18168,7 +18159,7 @@
         <f>AVERAGE(feedIN!F3:F196)</f>
         <v>2.2823703703703711E-2</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="93">
         <f>AVERAGE(feedIN!G3:G196)</f>
         <v>147.4898862548001</v>
       </c>
@@ -18196,107 +18187,107 @@
         <f>AVERAGE(feedIN!M3:M196)</f>
         <v>3.1469696969696967E-2</v>
       </c>
-      <c r="J4" s="94">
+      <c r="J4" s="93">
         <f>AVERAGE(feedIN!N3:N196)</f>
         <v>19.924999999999997</v>
       </c>
-      <c r="K4" s="94">
+      <c r="K4" s="93">
         <f>AVERAGE(feedIN!O3:O196)</f>
         <v>17.390909090909091</v>
       </c>
-      <c r="L4" s="94">
+      <c r="L4" s="93">
         <f>AVERAGE(feedIN!P3:P196)</f>
         <v>8.5453225806451609</v>
       </c>
-      <c r="M4" s="94">
+      <c r="M4" s="93">
         <f>AVERAGE(feedIN!Q3:Q196)</f>
         <v>6.828125</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <f>AVERAGE(feedIN!R3:R196)</f>
         <v>15.766999999999999</v>
       </c>
-      <c r="O4" s="94">
+      <c r="O4" s="93">
         <f>AVERAGE(feedIN!S3:S196)</f>
         <v>1.9273684210526318</v>
       </c>
-      <c r="P4" s="94">
+      <c r="P4" s="93">
         <f>AVERAGE(feedIN!T3:T196)</f>
         <v>3.9697333333333327</v>
       </c>
-      <c r="Q4" s="94">
+      <c r="Q4" s="93">
         <f>AVERAGE(feedIN!U3:U196)</f>
         <v>285.57241379310346</v>
       </c>
-      <c r="R4" s="94">
+      <c r="R4" s="93">
         <f>AVERAGE(feedIN!V3:V196)</f>
         <v>180.77931034482756</v>
       </c>
-      <c r="S4" s="94">
+      <c r="S4" s="93">
         <f>AVERAGE(feedIN!W3:W196)</f>
         <v>14.131034482758619</v>
       </c>
-      <c r="T4" s="94">
+      <c r="T4" s="93">
         <f>AVERAGE(feedIN!X3:X196)</f>
         <v>69.579310344827576</v>
       </c>
-      <c r="U4" s="94">
+      <c r="U4" s="93">
         <f>AVERAGE(feedIN!Y3:Y196)</f>
         <v>17.074999999999999</v>
       </c>
-      <c r="V4" s="94">
+      <c r="V4" s="93">
         <f>AVERAGE(feedIN!Z3:Z196)</f>
         <v>1.71</v>
       </c>
-      <c r="W4" s="94">
+      <c r="W4" s="93">
         <f>AVERAGE(feedIN!AA3:AA196)</f>
         <v>0.85875000000000001</v>
       </c>
-      <c r="X4" s="94">
+      <c r="X4" s="93">
         <f>AVERAGE(feedIN!AB3:AB196)</f>
         <v>2697.6499259259263</v>
       </c>
-      <c r="Y4" s="94" t="e">
+      <c r="Y4" s="93" t="e">
         <f>AVERAGE(feedIN!AC3:AC196)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="94">
+      <c r="Z4" s="93">
         <f>AVERAGE(feedIN!AD3:AD196)</f>
         <v>188.66666666666666</v>
       </c>
-      <c r="AA4" s="94">
+      <c r="AA4" s="93">
         <f>AVERAGE(feedIN!AE3:AE196)</f>
         <v>269</v>
       </c>
-      <c r="AB4" s="94">
+      <c r="AB4" s="93">
         <f>AVERAGE(feedIN!AF3:AF196)</f>
         <v>15</v>
       </c>
-      <c r="AC4" s="94">
+      <c r="AC4" s="93">
         <f>AVERAGE(feedIN!AG3:AG196)</f>
         <v>4.2</v>
       </c>
-      <c r="AD4" s="94">
+      <c r="AD4" s="93">
         <f>AVERAGE(feedIN!AH3:AH196)</f>
         <v>1.7</v>
       </c>
-      <c r="AE4" s="94">
+      <c r="AE4" s="93">
         <f>AVERAGE(feedIN!AI3:AI196)</f>
         <v>1.2</v>
       </c>
-      <c r="AF4" s="94">
+      <c r="AF4" s="93">
         <f>AVERAGE(feedIN!AJ3:AJ196)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AG4" s="94">
+      <c r="AG4" s="93">
         <f>AVERAGE(feedIN!AK3:AK196)</f>
         <v>0.7</v>
       </c>
-      <c r="AH4" s="94">
+      <c r="AH4" s="93">
         <f>AVERAGE(feedIN!AL3:AL196)</f>
         <v>0.5</v>
       </c>
-      <c r="AI4" s="94" t="e">
+      <c r="AI4" s="93" t="e">
         <f>AVERAGE(feedIN!AM3:AM196)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18305,139 +18296,139 @@
       <c r="A5" t="s">
         <v>534</v>
       </c>
-      <c r="B5" s="96">
+      <c r="B5" s="95">
         <f>STDEV(feedIN!F3:F196)</f>
         <v>1.5914983126304336E-2</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="94">
         <f>STDEV(feedIN!G3:G196)</f>
         <v>705.24988846175427</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="95">
         <f>STDEV(feedIN!H3:H196)</f>
         <v>4.647001888467276E-2</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="95">
         <f>STDEV(feedIN!I3:I196)</f>
         <v>6.5760189484278739E-2</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="95">
         <f>STDEV(feedIN!J3:J196)</f>
         <v>2.8011696215601317E-2</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="95">
         <f>STDEV(feedIN!K3:K196)</f>
         <v>5.6870313504847045E-2</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="95">
         <f>STDEV(feedIN!L3:L196)</f>
         <v>2.1448745868571213E-2</v>
       </c>
-      <c r="I5" s="96">
+      <c r="I5" s="95">
         <f>STDEV(feedIN!M3:M196)</f>
         <v>1.1545188404325632E-2</v>
       </c>
-      <c r="J5" s="95">
+      <c r="J5" s="94">
         <f>STDEV(feedIN!N3:N196)</f>
         <v>0.32403703492039432</v>
       </c>
-      <c r="K5" s="95">
+      <c r="K5" s="94">
         <f>STDEV(feedIN!O3:O196)</f>
         <v>0.56825090489069185</v>
       </c>
-      <c r="L5" s="95">
+      <c r="L5" s="94">
         <f>STDEV(feedIN!P3:P196)</f>
         <v>5.2934644881852666</v>
       </c>
-      <c r="M5" s="95">
+      <c r="M5" s="94">
         <f>STDEV(feedIN!Q3:Q196)</f>
         <v>4.8549839941377071</v>
       </c>
-      <c r="N5" s="95">
+      <c r="N5" s="94">
         <f>STDEV(feedIN!R3:R196)</f>
         <v>12.722044714751553</v>
       </c>
-      <c r="O5" s="95">
+      <c r="O5" s="94">
         <f>STDEV(feedIN!S3:S196)</f>
         <v>1.3240776332781123</v>
       </c>
-      <c r="P5" s="95">
+      <c r="P5" s="94">
         <f>STDEV(feedIN!T3:T196)</f>
         <v>2.0020238547908278</v>
       </c>
-      <c r="Q5" s="95">
+      <c r="Q5" s="94">
         <f>STDEV(feedIN!U3:U196)</f>
         <v>294.3757789150165</v>
       </c>
-      <c r="R5" s="95">
+      <c r="R5" s="94">
         <f>STDEV(feedIN!V3:V196)</f>
         <v>98.307841495515476</v>
       </c>
-      <c r="S5" s="95">
+      <c r="S5" s="94">
         <f>STDEV(feedIN!W3:W196)</f>
         <v>10.568690398945771</v>
       </c>
-      <c r="T5" s="95">
+      <c r="T5" s="94">
         <f>STDEV(feedIN!X3:X196)</f>
         <v>59.944309746096508</v>
       </c>
-      <c r="U5" s="95">
+      <c r="U5" s="94">
         <f>STDEV(feedIN!Y3:Y196)</f>
         <v>11.680845125980522</v>
       </c>
-      <c r="V5" s="95">
+      <c r="V5" s="94">
         <f>STDEV(feedIN!Z3:Z196)</f>
         <v>1.8745239395643896</v>
       </c>
-      <c r="W5" s="95">
+      <c r="W5" s="94">
         <f>STDEV(feedIN!AA3:AA196)</f>
         <v>0.25016780082862095</v>
       </c>
-      <c r="X5" s="95">
+      <c r="X5" s="94">
         <f>STDEV(feedIN!AB3:AB196)</f>
         <v>2177.3809085350481</v>
       </c>
-      <c r="Y5" s="95" t="e">
+      <c r="Y5" s="94" t="e">
         <f>STDEV(feedIN!AC3:AC196)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z5" s="95">
+      <c r="Z5" s="94">
         <f>STDEV(feedIN!AD3:AD196)</f>
         <v>146.14057159689321</v>
       </c>
-      <c r="AA5" s="95">
+      <c r="AA5" s="94">
         <f>STDEV(feedIN!AE3:AE196)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="95">
+      <c r="AB5" s="94">
         <f>STDEV(feedIN!AF3:AF196)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="95">
+      <c r="AC5" s="94">
         <f>STDEV(feedIN!AG3:AG196)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="95">
+      <c r="AD5" s="94">
         <f>STDEV(feedIN!AH3:AH196)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="95">
+      <c r="AE5" s="94">
         <f>STDEV(feedIN!AI3:AI196)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="95">
+      <c r="AF5" s="94">
         <f>STDEV(feedIN!AJ3:AJ196)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="95">
+      <c r="AG5" s="94">
         <f>STDEV(feedIN!AK3:AK196)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="95">
+      <c r="AH5" s="94">
         <f>STDEV(feedIN!AL3:AL196)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="95" t="e">
+      <c r="AI5" s="94" t="e">
         <f>STDEV(feedIN!AM3:AM196)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18482,7 +18473,7 @@
         <f>MAX(feedIN!N3:N196)</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="K6" s="94">
+      <c r="K6" s="93">
         <f>MAX(feedIN!O3:O196)</f>
         <v>17.899999999999999</v>
       </c>
@@ -18632,7 +18623,7 @@
   <dimension ref="A1:AO116"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AJ104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="M70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A117" sqref="A117:XFD120"/>
@@ -18644,21 +18635,21 @@
     <col min="2" max="2" width="11.33203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="17"/>
-    <col min="5" max="7" width="10.83203125" style="87"/>
+    <col min="5" max="7" width="10.83203125" style="86"/>
     <col min="8" max="8" width="18.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="13"/>
-    <col min="10" max="11" width="10.83203125" style="61"/>
+    <col min="10" max="11" width="10.83203125" style="60"/>
     <col min="12" max="12" width="10.83203125" style="17"/>
     <col min="13" max="41" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="97" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:41" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="str">
@@ -18676,13 +18667,13 @@
       <c r="D2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>407</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="87" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -18691,10 +18682,10 @@
       <c r="I2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="58" t="s">
         <v>197</v>
       </c>
       <c r="L2" s="24" t="s">
@@ -18805,16 +18796,16 @@
         <f>rearing!U3</f>
         <v>7</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="18">
         <f>rearing!S3</f>
         <v>26</v>
       </c>
       <c r="I3" s="19"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="20">
         <f>AVERAGE(0.2,0.4,0.4)</f>
         <v>0.33333333333333331</v>
@@ -18955,7 +18946,7 @@
       <c r="I6" s="13">
         <v>2626</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="82">
         <f>14.21/4.15</f>
         <v>3.4240963855421684</v>
       </c>
@@ -19017,7 +19008,7 @@
       <c r="I7" s="13">
         <v>2626</v>
       </c>
-      <c r="J7" s="83">
+      <c r="J7" s="82">
         <f>14.21/4.15</f>
         <v>3.4240963855421684</v>
       </c>
@@ -19079,7 +19070,7 @@
       <c r="I8" s="13">
         <v>1607</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="82">
         <f>9.89/4.15</f>
         <v>2.383132530120482</v>
       </c>
@@ -19134,13 +19125,13 @@
         <f>rearing!U9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="86" t="s">
         <v>445</v>
       </c>
       <c r="H9" s="7">
@@ -19165,13 +19156,13 @@
         <f>rearing!U10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="86" t="s">
         <v>445</v>
       </c>
       <c r="H10" s="7">
@@ -19196,13 +19187,13 @@
         <f>rearing!U11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="86" t="s">
         <v>445</v>
       </c>
       <c r="H11" s="7">
@@ -19227,13 +19218,13 @@
         <f>rearing!U12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="86" t="s">
         <v>445</v>
       </c>
       <c r="H12" s="7">
@@ -19642,19 +19633,19 @@
         <f>rearing!B19</f>
         <v>Nile tilapia</v>
       </c>
-      <c r="C19" s="28" t="str">
+      <c r="C19" s="27" t="str">
         <f>rearing!C19</f>
         <v>AER</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="29">
+      <c r="I19" s="27"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="28">
         <v>0.39</v>
       </c>
       <c r="M19" s="26"/>
@@ -19715,19 +19706,19 @@
         <f>rearing!B20</f>
         <v>Nile tilapia</v>
       </c>
-      <c r="C20" s="28" t="str">
+      <c r="C20" s="27" t="str">
         <f>rearing!C20</f>
         <v>ANA</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="29">
+      <c r="I20" s="27"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="28">
         <v>0.39</v>
       </c>
       <c r="M20" s="26"/>
@@ -19796,13 +19787,13 @@
         <f>AVERAGE(7.1,7.4)</f>
         <v>7.25</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F21" s="87" t="s">
+      <c r="F21" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="86" t="s">
         <v>408</v>
       </c>
       <c r="L21" s="17">
@@ -19881,13 +19872,13 @@
         <f>AVERAGE(7.1,7.4)</f>
         <v>7.25</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="86" t="s">
         <v>408</v>
       </c>
       <c r="L22" s="17">
@@ -19966,13 +19957,13 @@
         <f>AVERAGE(7.1,7.4)</f>
         <v>7.25</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F23" s="87" t="s">
+      <c r="F23" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="86" t="s">
         <v>408</v>
       </c>
       <c r="L23" s="17">
@@ -20050,13 +20041,13 @@
       <c r="D24" s="17">
         <v>7.3</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="86" t="s">
         <v>445</v>
       </c>
       <c r="H24" s="7">
@@ -20109,7 +20100,7 @@
         <f>rearing!C25</f>
         <v>ANA1</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="60">
         <f>151*18.83%</f>
         <v>28.433299999999999</v>
       </c>
@@ -20158,369 +20149,369 @@
         <v>34.468520000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:41" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="str">
+    <row r="26" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="str">
         <f>rearing!A26</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B26" s="42" t="str">
+      <c r="B26" s="41" t="str">
         <f>rearing!B26</f>
         <v>African catfish</v>
       </c>
-      <c r="C26" s="43" t="str">
+      <c r="C26" s="42" t="str">
         <f>rearing!C26</f>
         <v>FeSO4-20</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42"/>
-    </row>
-    <row r="27" spans="1:41" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="str">
+      <c r="D26" s="47"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+    </row>
+    <row r="27" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="str">
         <f>rearing!A27</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B27" s="42" t="str">
+      <c r="B27" s="41" t="str">
         <f>rearing!B27</f>
         <v>African catfish</v>
       </c>
-      <c r="C27" s="43" t="str">
+      <c r="C27" s="42" t="str">
         <f>rearing!C27</f>
         <v>FeSO4-30</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-    </row>
-    <row r="28" spans="1:41" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="str">
+      <c r="D27" s="47"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+    </row>
+    <row r="28" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="str">
         <f>rearing!A28</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B28" s="42" t="str">
+      <c r="B28" s="41" t="str">
         <f>rearing!B28</f>
         <v>African catfish</v>
       </c>
-      <c r="C28" s="43" t="str">
+      <c r="C28" s="42" t="str">
         <f>rearing!C28</f>
         <v>FeSO4-60</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-    </row>
-    <row r="29" spans="1:41" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="str">
+      <c r="D28" s="47"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+    </row>
+    <row r="29" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="str">
         <f>rearing!A29</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B29" s="42" t="str">
+      <c r="B29" s="41" t="str">
         <f>rearing!B29</f>
         <v>African catfish</v>
       </c>
-      <c r="C29" s="43" t="str">
+      <c r="C29" s="42" t="str">
         <f>rearing!C29</f>
         <v>FeAA-5</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-    </row>
-    <row r="30" spans="1:41" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="str">
+      <c r="D29" s="47"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="41"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
+      <c r="AO29" s="41"/>
+    </row>
+    <row r="30" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="str">
         <f>rearing!A30</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>rearing!B30</f>
         <v>African catfish</v>
       </c>
-      <c r="C30" s="43" t="str">
+      <c r="C30" s="42" t="str">
         <f>rearing!C30</f>
         <v>FeAA-10</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-    </row>
-    <row r="31" spans="1:41" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="str">
+      <c r="D30" s="47"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="41"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="41"/>
+    </row>
+    <row r="31" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="str">
         <f>rearing!A31</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B31" s="42" t="str">
+      <c r="B31" s="41" t="str">
         <f>rearing!B31</f>
         <v>African catfish</v>
       </c>
-      <c r="C31" s="43" t="str">
+      <c r="C31" s="42" t="str">
         <f>rearing!C31</f>
         <v>FeAA-20</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-    </row>
-    <row r="32" spans="1:41" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="str">
+      <c r="D31" s="47"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+    </row>
+    <row r="32" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="str">
         <f>rearing!A32</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="41" t="str">
         <f>rearing!B32</f>
         <v>African catfish</v>
       </c>
-      <c r="C32" s="43" t="str">
+      <c r="C32" s="42" t="str">
         <f>rearing!C32</f>
         <v>Control</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
-      <c r="AO32" s="42"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="41"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -20535,13 +20526,13 @@
         <f>rearing!C33</f>
         <v>AE</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="86" t="s">
         <v>445</v>
       </c>
     </row>
@@ -20558,13 +20549,13 @@
         <f>rearing!C34</f>
         <v>AEC</v>
       </c>
-      <c r="E34" s="87" t="s">
+      <c r="E34" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="86" t="s">
         <v>445</v>
       </c>
     </row>
@@ -20581,13 +20572,13 @@
         <f>rearing!C35</f>
         <v>Std_E1</v>
       </c>
-      <c r="E35" s="87" t="s">
+      <c r="E35" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="86" t="s">
         <v>445</v>
       </c>
     </row>
@@ -20604,13 +20595,13 @@
         <f>rearing!C36</f>
         <v>AE-NPK</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="86" t="s">
         <v>445</v>
       </c>
     </row>
@@ -20627,13 +20618,13 @@
         <f>rearing!C37</f>
         <v>AN-NPK</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="86" t="s">
         <v>445</v>
       </c>
     </row>
@@ -20650,13 +20641,13 @@
         <f>rearing!C38</f>
         <v>Std_E2</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G38" s="87" t="s">
+      <c r="G38" s="86" t="s">
         <v>445</v>
       </c>
     </row>
@@ -21276,7 +21267,7 @@
       <c r="Z67">
         <v>30.82</v>
       </c>
-      <c r="AB67" s="77">
+      <c r="AB67" s="76">
         <v>18.3</v>
       </c>
       <c r="AD67">
@@ -21329,7 +21320,7 @@
       <c r="Z68">
         <v>8.92</v>
       </c>
-      <c r="AB68" s="77">
+      <c r="AB68" s="76">
         <v>19.559999999999999</v>
       </c>
       <c r="AD68">
@@ -21382,7 +21373,7 @@
       <c r="Z69">
         <v>41.17</v>
       </c>
-      <c r="AB69" s="77">
+      <c r="AB69" s="76">
         <v>90.26</v>
       </c>
       <c r="AD69">
@@ -21540,13 +21531,13 @@
       <c r="D76" s="17">
         <v>7.2</v>
       </c>
-      <c r="E76" s="87" t="s">
+      <c r="E76" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F76" s="87" t="s">
+      <c r="F76" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G76" s="87" t="s">
+      <c r="G76" s="86" t="s">
         <v>408</v>
       </c>
       <c r="H76" s="7">
@@ -21569,13 +21560,13 @@
       <c r="D77" s="17">
         <v>7.2</v>
       </c>
-      <c r="E77" s="87" t="s">
+      <c r="E77" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F77" s="87" t="s">
+      <c r="F77" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G77" s="87" t="s">
+      <c r="G77" s="86" t="s">
         <v>408</v>
       </c>
       <c r="H77" s="7">
@@ -21598,13 +21589,13 @@
       <c r="D78" s="17">
         <v>7.2</v>
       </c>
-      <c r="E78" s="87" t="s">
+      <c r="E78" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F78" s="87" t="s">
+      <c r="F78" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G78" s="87" t="s">
+      <c r="G78" s="86" t="s">
         <v>408</v>
       </c>
       <c r="H78" s="7">
@@ -21824,16 +21815,16 @@
         <f>rearing!U93</f>
         <v>7</v>
       </c>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
       <c r="H93" s="18">
         <f>rearing!S93</f>
         <v>26</v>
       </c>
       <c r="I93" s="19"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
       <c r="L93" s="20">
         <f>AVERAGE(0.2,0.4,0.4)</f>
         <v>0.33333333333333331</v>
@@ -22007,13 +21998,13 @@
       <c r="D100" s="17">
         <v>6.9</v>
       </c>
-      <c r="E100" s="87" t="s">
+      <c r="E100" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="F100" s="87" t="s">
+      <c r="F100" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="G100" s="87" t="s">
+      <c r="G100" s="86" t="s">
         <v>408</v>
       </c>
       <c r="L100" s="17">
@@ -22064,13 +22055,13 @@
       <c r="D101" s="17">
         <v>6.9</v>
       </c>
-      <c r="E101" s="87" t="s">
+      <c r="E101" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="F101" s="87" t="s">
+      <c r="F101" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="G101" s="87" t="s">
+      <c r="G101" s="86" t="s">
         <v>408</v>
       </c>
       <c r="L101" s="17">
@@ -22121,13 +22112,13 @@
       <c r="D102" s="17">
         <v>6.9</v>
       </c>
-      <c r="E102" s="87" t="s">
+      <c r="E102" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="F102" s="87" t="s">
+      <c r="F102" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="G102" s="87" t="s">
+      <c r="G102" s="86" t="s">
         <v>408</v>
       </c>
       <c r="L102" s="17">
@@ -22259,13 +22250,13 @@
         <f>rearing!C109</f>
         <v>pH7</v>
       </c>
-      <c r="E109" s="87" t="s">
+      <c r="E109" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F109" s="87" t="s">
+      <c r="F109" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G109" s="87" t="s">
+      <c r="G109" s="86" t="s">
         <v>408</v>
       </c>
     </row>
@@ -22282,13 +22273,13 @@
         <f>rearing!C110</f>
         <v>pH6.5</v>
       </c>
-      <c r="E110" s="87" t="s">
+      <c r="E110" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F110" s="87" t="s">
+      <c r="F110" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G110" s="87" t="s">
+      <c r="G110" s="86" t="s">
         <v>408</v>
       </c>
     </row>
@@ -22305,13 +22296,13 @@
         <f>rearing!C111</f>
         <v>pH5.8</v>
       </c>
-      <c r="E111" s="87" t="s">
+      <c r="E111" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F111" s="87" t="s">
+      <c r="F111" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G111" s="87" t="s">
+      <c r="G111" s="86" t="s">
         <v>408</v>
       </c>
     </row>
@@ -22328,13 +22319,13 @@
         <f>rearing!C112</f>
         <v>pH5</v>
       </c>
-      <c r="E112" s="87" t="s">
+      <c r="E112" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F112" s="87" t="s">
+      <c r="F112" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="G112" s="87" t="s">
+      <c r="G112" s="86" t="s">
         <v>408</v>
       </c>
     </row>
@@ -22427,22 +22418,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" x14ac:dyDescent="0.3">
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97" t="s">
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
     </row>
     <row r="2" spans="1:29" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -22555,11 +22546,11 @@
         <f>AVERAGE(1.23,1.14,1.65)</f>
         <v>1.3399999999999999</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="84">
         <v>1</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="30"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -22626,11 +22617,11 @@
         <f>AVERAGE(1.23,1.14,1.65)</f>
         <v>1.3399999999999999</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="84">
         <v>1</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="30"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -22692,7 +22683,7 @@
       <c r="E5" s="7">
         <v>12.2</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="81">
         <v>1</v>
       </c>
       <c r="G5" s="11"/>
@@ -22756,7 +22747,7 @@
       <c r="E6" s="7">
         <v>10.77</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="81">
         <v>1</v>
       </c>
       <c r="G6" s="11"/>
@@ -22822,7 +22813,7 @@
       <c r="E7" s="7">
         <v>10.77</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="81">
         <v>1</v>
       </c>
       <c r="G7" s="11"/>
@@ -22888,7 +22879,7 @@
       <c r="E8" s="7">
         <v>8.6</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="81">
         <v>1</v>
       </c>
       <c r="H8" s="10">
@@ -23522,7 +23513,7 @@
       <c r="E24" s="7">
         <v>1.2170000000000001</v>
       </c>
-      <c r="P24" s="78">
+      <c r="P24" s="77">
         <f>0.0063/E24</f>
         <v>5.1766639276910435E-3</v>
       </c>
@@ -23590,7 +23581,7 @@
         <f>0.151*81.17%/E25</f>
         <v>9.0992353377876756E-2</v>
       </c>
-      <c r="P25" s="78">
+      <c r="P25" s="77">
         <f>0.143*11.46%/E25</f>
         <v>1.2166146993318486E-2</v>
       </c>
@@ -23635,7 +23626,7 @@
         <v>9.760950259836676E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="str">
         <f>rearing!A26</f>
         <v>Siqwepu2020</v>
@@ -23648,36 +23639,36 @@
         <f>rearing!C26</f>
         <v>FeSO4-20</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-    </row>
-    <row r="27" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+    </row>
+    <row r="27" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="str">
         <f>rearing!A27</f>
         <v>Siqwepu2020</v>
@@ -23690,36 +23681,36 @@
         <f>rearing!C27</f>
         <v>FeSO4-30</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-    </row>
-    <row r="28" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+    </row>
+    <row r="28" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="str">
         <f>rearing!A28</f>
         <v>Siqwepu2020</v>
@@ -23732,36 +23723,36 @@
         <f>rearing!C28</f>
         <v>FeSO4-60</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-    </row>
-    <row r="29" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+    </row>
+    <row r="29" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="str">
         <f>rearing!A29</f>
         <v>Siqwepu2020</v>
@@ -23774,36 +23765,36 @@
         <f>rearing!C29</f>
         <v>FeAA-5</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-    </row>
-    <row r="30" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+    </row>
+    <row r="30" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="str">
         <f>rearing!A30</f>
         <v>Siqwepu2020</v>
@@ -23816,36 +23807,36 @@
         <f>rearing!C30</f>
         <v>FeAA-10</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-    </row>
-    <row r="31" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+    </row>
+    <row r="31" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="str">
         <f>rearing!A31</f>
         <v>Siqwepu2020</v>
@@ -23858,36 +23849,36 @@
         <f>rearing!C31</f>
         <v>FeAA-20</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-    </row>
-    <row r="32" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+    </row>
+    <row r="32" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="str">
         <f>rearing!A32</f>
         <v>Siqwepu2020</v>
@@ -23900,34 +23891,34 @@
         <f>rearing!C32</f>
         <v>Control</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="str">
@@ -24480,7 +24471,7 @@
       <c r="D65" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P65" s="79">
+      <c r="P65" s="78">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="Q65" s="7">
@@ -24852,7 +24843,7 @@
       <c r="D83" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F83" s="81">
+      <c r="F83" s="80">
         <f t="shared" ref="F83:F91" si="0">100%-86.3%</f>
         <v>0.13700000000000001</v>
       </c>
@@ -24912,7 +24903,7 @@
       <c r="D84" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F84" s="81">
+      <c r="F84" s="80">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -24972,7 +24963,7 @@
       <c r="D85" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F85" s="81">
+      <c r="F85" s="80">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -25032,7 +25023,7 @@
       <c r="D86" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F86" s="81">
+      <c r="F86" s="80">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -25092,7 +25083,7 @@
       <c r="D87" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F87" s="81">
+      <c r="F87" s="80">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -25152,7 +25143,7 @@
       <c r="D88" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F88" s="81">
+      <c r="F88" s="80">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -25212,7 +25203,7 @@
       <c r="D89" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F89" s="81">
+      <c r="F89" s="80">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -25272,7 +25263,7 @@
       <c r="D90" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F90" s="81">
+      <c r="F90" s="80">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -25332,7 +25323,7 @@
       <c r="D91" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F91" s="81">
+      <c r="F91" s="80">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -25395,12 +25386,12 @@
       <c r="E92" s="7">
         <v>12.2</v>
       </c>
-      <c r="F92" s="82">
+      <c r="F92" s="81">
         <v>1</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
-      <c r="P92" s="78">
+      <c r="P92" s="77">
         <v>16.5</v>
       </c>
       <c r="Q92" s="7">
@@ -27071,7 +27062,7 @@
         <v>0.64268999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f>rearing!A26</f>
         <v>Siqwepu2020</v>
@@ -27085,7 +27076,7 @@
         <v>FeSO4-20</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f>rearing!A27</f>
         <v>Siqwepu2020</v>
@@ -27099,7 +27090,7 @@
         <v>FeSO4-30</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f>rearing!A28</f>
         <v>Siqwepu2020</v>
@@ -27113,7 +27104,7 @@
         <v>FeSO4-60</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f>rearing!A29</f>
         <v>Siqwepu2020</v>
@@ -27127,7 +27118,7 @@
         <v>FeAA-5</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f>rearing!A30</f>
         <v>Siqwepu2020</v>
@@ -27141,7 +27132,7 @@
         <v>FeAA-10</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>rearing!A31</f>
         <v>Siqwepu2020</v>
@@ -27155,7 +27146,7 @@
         <v>FeAA-20</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f>rearing!A32</f>
         <v>Siqwepu2020</v>
@@ -27212,7 +27203,7 @@
       <c r="Z33" s="26">
         <v>10.08</v>
       </c>
-      <c r="AB33" s="64">
+      <c r="AB33" s="63">
         <v>2.6700000000000001E-3</v>
       </c>
       <c r="AD33" s="26">
@@ -27271,7 +27262,7 @@
       <c r="Z34" s="26">
         <v>11.08</v>
       </c>
-      <c r="AB34" s="64">
+      <c r="AB34" s="63">
         <v>2.16E-3</v>
       </c>
       <c r="AD34" s="26">
@@ -27315,7 +27306,7 @@
       <c r="Z35" s="26">
         <v>45.53</v>
       </c>
-      <c r="AB35" s="64">
+      <c r="AB35" s="63">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="AD35" s="26">
@@ -29631,7 +29622,7 @@
         <f>16.97*(14)</f>
         <v>237.57999999999998</v>
       </c>
-      <c r="L44" s="67">
+      <c r="L44" s="66">
         <f>J44+K44</f>
         <v>253.82</v>
       </c>
@@ -29711,7 +29702,7 @@
         <f>17.93*14</f>
         <v>251.01999999999998</v>
       </c>
-      <c r="L45" s="67">
+      <c r="L45" s="66">
         <f>J45+K45</f>
         <v>266.41999999999996</v>
       </c>
@@ -30632,10 +30623,10 @@
       <c r="S82">
         <v>1.9545750000000001E-2</v>
       </c>
-      <c r="T82" s="70">
+      <c r="T82" s="69">
         <v>4.4482200000000001E-3</v>
       </c>
-      <c r="V82" s="70">
+      <c r="V82" s="69">
         <v>5.8842E-3</v>
       </c>
     </row>
@@ -30815,7 +30806,7 @@
       <c r="H94" s="13">
         <v>540</v>
       </c>
-      <c r="I94" s="61"/>
+      <c r="I94" s="60"/>
       <c r="J94" s="17">
         <v>0.33</v>
       </c>
@@ -30832,7 +30823,7 @@
       <c r="N94" s="7">
         <v>26.7</v>
       </c>
-      <c r="O94" s="77">
+      <c r="O94" s="76">
         <v>34.200000000000003</v>
       </c>
       <c r="Q94" s="7"/>
@@ -30872,7 +30863,7 @@
       <c r="H95" s="13">
         <v>1470</v>
       </c>
-      <c r="I95" s="61"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="17">
         <v>0.1</v>
       </c>
@@ -30889,7 +30880,7 @@
       <c r="N95" s="7">
         <v>117.3</v>
       </c>
-      <c r="O95" s="77">
+      <c r="O95" s="76">
         <v>100.2</v>
       </c>
       <c r="Q95" s="7"/>
@@ -31678,7 +31669,7 @@
   <dimension ref="A2:AT116"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
@@ -32624,7 +32615,7 @@
       <c r="O46" t="s">
         <v>138</v>
       </c>
-      <c r="P46" s="67">
+      <c r="P46" s="66">
         <f>J46+N46+L46</f>
         <v>176.17999999999998</v>
       </c>
@@ -32690,7 +32681,7 @@
       <c r="O47" t="s">
         <v>138</v>
       </c>
-      <c r="P47" s="67">
+      <c r="P47" s="66">
         <f t="shared" ref="P47:P48" si="0">J47+N47+L47</f>
         <v>135.51999999999998</v>
       </c>
@@ -32756,7 +32747,7 @@
       <c r="O48" t="s">
         <v>138</v>
       </c>
-      <c r="P48" s="67">
+      <c r="P48" s="66">
         <f t="shared" si="0"/>
         <v>135.51999999999998</v>
       </c>
@@ -33385,16 +33376,16 @@
       <c r="AB65">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="AE65" s="70">
+      <c r="AE65" s="69">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AH65" s="70">
+      <c r="AH65" s="69">
         <v>1.09E-2</v>
       </c>
-      <c r="AK65" s="70">
+      <c r="AK65" s="69">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="AN65" s="70">
+      <c r="AN65" s="69">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="AQ65">
@@ -33989,7 +33980,7 @@
       <c r="O100" t="s">
         <v>145</v>
       </c>
-      <c r="P100" s="67">
+      <c r="P100" s="66">
         <f t="shared" ref="P100:P105" si="1">J100+L100+N100</f>
         <v>27.6</v>
       </c>
@@ -34067,7 +34058,7 @@
       <c r="O101" t="s">
         <v>138</v>
       </c>
-      <c r="P101" s="67">
+      <c r="P101" s="66">
         <f t="shared" si="1"/>
         <v>127.6</v>
       </c>
@@ -34148,7 +34139,7 @@
       <c r="O102" t="s">
         <v>138</v>
       </c>
-      <c r="P102" s="67">
+      <c r="P102" s="66">
         <f t="shared" si="1"/>
         <v>242.6</v>
       </c>
@@ -34229,7 +34220,7 @@
       <c r="O103" t="s">
         <v>138</v>
       </c>
-      <c r="P103" s="67">
+      <c r="P103" s="66">
         <f t="shared" si="1"/>
         <v>240.47</v>
       </c>
@@ -34307,7 +34298,7 @@
       <c r="O104" t="s">
         <v>138</v>
       </c>
-      <c r="P104" s="67">
+      <c r="P104" s="66">
         <f t="shared" si="1"/>
         <v>220.4</v>
       </c>
@@ -34385,7 +34376,7 @@
       <c r="O105" t="s">
         <v>138</v>
       </c>
-      <c r="P105" s="67">
+      <c r="P105" s="66">
         <f t="shared" si="1"/>
         <v>220.25</v>
       </c>
@@ -35081,22 +35072,22 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97" t="s">
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
       <c r="AB1" s="7"/>
     </row>
     <row r="2" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -36800,11 +36791,11 @@
   </sheetPr>
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A117" sqref="A117:XFD128"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36822,30 +36813,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -36868,7 +36859,7 @@
       <c r="F2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -36886,7 +36877,7 @@
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -36901,7 +36892,7 @@
       <c r="Q2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="32" t="s">
         <v>10</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -37227,6 +37218,10 @@
         <f>rearing!C21</f>
         <v>RAS A</v>
       </c>
+      <c r="E21" s="102">
+        <f>324.6/rearing!N21*1000</f>
+        <v>329.93721973094171</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -37241,6 +37236,10 @@
         <f>rearing!C22</f>
         <v>RAS C+Hydro C</v>
       </c>
+      <c r="E22" s="102">
+        <f>330.2/rearing!N22*1000</f>
+        <v>336.1317365269461</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -37255,6 +37254,10 @@
         <f>rearing!C23</f>
         <v>RAS D/Hydro D</v>
       </c>
+      <c r="E23" s="102">
+        <f>323.7/rearing!N23*1000</f>
+        <v>329.51497005988028</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -37284,187 +37287,187 @@
         <v>ANA1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="str">
+    <row r="26" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="str">
         <f>rearing!A26</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B26" s="42" t="str">
+      <c r="B26" s="41" t="str">
         <f>rearing!B26</f>
         <v>African catfish</v>
       </c>
-      <c r="C26" s="42" t="str">
+      <c r="C26" s="41" t="str">
         <f>rearing!C26</f>
         <v>FeSO4-20</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="49">
         <v>0.7</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>409</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="48"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="48"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="48"/>
-    </row>
-    <row r="27" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="str">
+      <c r="F26" s="42"/>
+      <c r="G26" s="47"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="47"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="47"/>
+    </row>
+    <row r="27" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="str">
         <f>rearing!A27</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B27" s="42" t="str">
+      <c r="B27" s="41" t="str">
         <f>rearing!B27</f>
         <v>African catfish</v>
       </c>
-      <c r="C27" s="42" t="str">
+      <c r="C27" s="41" t="str">
         <f>rearing!C27</f>
         <v>FeSO4-30</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="49">
         <v>0.73</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>466</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="48"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="48"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="48"/>
-    </row>
-    <row r="28" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="str">
+      <c r="F27" s="42"/>
+      <c r="G27" s="47"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="47"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="47"/>
+    </row>
+    <row r="28" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="str">
         <f>rearing!A28</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B28" s="42" t="str">
+      <c r="B28" s="41" t="str">
         <f>rearing!B28</f>
         <v>African catfish</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="41" t="str">
         <f>rearing!C28</f>
         <v>FeSO4-60</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="49">
         <v>0.67</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>425</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="48"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="48"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="48"/>
-    </row>
-    <row r="29" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="str">
+      <c r="F28" s="42"/>
+      <c r="G28" s="47"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="47"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="47"/>
+    </row>
+    <row r="29" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="str">
         <f>rearing!A29</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B29" s="42" t="str">
+      <c r="B29" s="41" t="str">
         <f>rearing!B29</f>
         <v>African catfish</v>
       </c>
-      <c r="C29" s="42" t="str">
+      <c r="C29" s="41" t="str">
         <f>rearing!C29</f>
         <v>FeAA-5</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="49">
         <v>0.7</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="41">
         <v>438</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="48"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="48"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="48"/>
-    </row>
-    <row r="30" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="str">
+      <c r="F29" s="42"/>
+      <c r="G29" s="47"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="47"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="47"/>
+    </row>
+    <row r="30" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="str">
         <f>rearing!A30</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>rearing!B30</f>
         <v>African catfish</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="41" t="str">
         <f>rearing!C30</f>
         <v>FeAA-10</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="49">
         <v>0.83</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>455</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="48"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="48"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="48"/>
-    </row>
-    <row r="31" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="str">
+      <c r="F30" s="42"/>
+      <c r="G30" s="47"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="47"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="47"/>
+    </row>
+    <row r="31" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="str">
         <f>rearing!A31</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B31" s="42" t="str">
+      <c r="B31" s="41" t="str">
         <f>rearing!B31</f>
         <v>African catfish</v>
       </c>
-      <c r="C31" s="42" t="str">
+      <c r="C31" s="41" t="str">
         <f>rearing!C31</f>
         <v>FeAA-20</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="49">
         <v>0.8</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="41">
         <v>426</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="48"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="48"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="48"/>
-    </row>
-    <row r="32" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="str">
+      <c r="F31" s="42"/>
+      <c r="G31" s="47"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="47"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="47"/>
+    </row>
+    <row r="32" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="str">
         <f>rearing!A32</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="41" t="str">
         <f>rearing!B32</f>
         <v>African catfish</v>
       </c>
-      <c r="C32" s="42" t="str">
+      <c r="C32" s="41" t="str">
         <f>rearing!C32</f>
         <v>Control</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="49">
         <v>0.9</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>384</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="48"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="48"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="48"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="47"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="47"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="47"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -37768,6 +37771,10 @@
         <f>rearing!C53</f>
         <v>NFT</v>
       </c>
+      <c r="E53" s="7">
+        <f>(59+rearing!O53)/rearing!N53*1000</f>
+        <v>264.4666666666667</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="str">
@@ -37782,6 +37789,10 @@
         <f>rearing!C54</f>
         <v>Raft</v>
       </c>
+      <c r="E54" s="7">
+        <f>(59+rearing!O54)/rearing!N54*1000</f>
+        <v>264.4666666666667</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="str">
@@ -37796,6 +37807,10 @@
         <f>rearing!C55</f>
         <v>Drip</v>
       </c>
+      <c r="E55" s="7">
+        <f>(59+rearing!O55)/rearing!N55*1000</f>
+        <v>264.4666666666667</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="str">
@@ -37972,8 +37987,11 @@
         <f>rearing!C65</f>
         <v>Lettuce</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="73">
         <v>0.95</v>
+      </c>
+      <c r="E65" s="7">
+        <v>236</v>
       </c>
       <c r="M65" s="17">
         <v>0.23699999999999999</v>
@@ -37990,19 +38008,19 @@
       <c r="Q65" s="13">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="R65" s="72">
+      <c r="R65" s="71">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="S65" s="71">
+      <c r="S65" s="70">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="T65" s="71">
+      <c r="T65" s="70">
         <v>1.4E-3</v>
       </c>
-      <c r="U65" s="71">
+      <c r="U65" s="70">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="V65" s="71">
+      <c r="V65" s="70">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="Y65" s="7">
@@ -38022,8 +38040,11 @@
         <f>rearing!C66</f>
         <v>Basil</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="73">
         <v>0.95</v>
+      </c>
+      <c r="E66" s="7">
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
@@ -38084,7 +38105,15 @@
         <f>rearing!C70</f>
         <v>Unit I</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E70" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="F70" s="13">
+        <v>2917.3</v>
+      </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="str">
@@ -38099,7 +38128,15 @@
         <f>rearing!C71</f>
         <v>Unit I</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E71" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="F71" s="13">
+        <v>2917.3</v>
+      </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="str">
@@ -38114,7 +38151,15 @@
         <f>rearing!C72</f>
         <v>Unit II</v>
       </c>
-      <c r="D72" s="10"/>
+      <c r="D72" s="10">
+        <v>0.1042</v>
+      </c>
+      <c r="E72" s="7">
+        <v>46.29</v>
+      </c>
+      <c r="F72" s="13">
+        <v>2934.7</v>
+      </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="str">
@@ -38129,7 +38174,15 @@
         <f>rearing!C73</f>
         <v>Unit II</v>
       </c>
-      <c r="D73" s="10"/>
+      <c r="D73" s="10">
+        <v>0.1042</v>
+      </c>
+      <c r="E73" s="7">
+        <v>46.29</v>
+      </c>
+      <c r="F73" s="13">
+        <v>2934.7</v>
+      </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="str">
@@ -38571,10 +38624,6 @@
         <f>rearing!A103</f>
         <v>Yang2020</v>
       </c>
-      <c r="B103" s="7">
-        <f>rearing!B103</f>
-        <v>0</v>
-      </c>
       <c r="C103" s="7" t="str">
         <f>rearing!C103</f>
         <v>HP_Tomato</v>
@@ -38585,10 +38634,6 @@
       <c r="A104" s="7" t="str">
         <f>rearing!A104</f>
         <v>Yang2020</v>
-      </c>
-      <c r="B104" s="7">
-        <f>rearing!B104</f>
-        <v>0</v>
       </c>
       <c r="C104" s="7" t="str">
         <f>rearing!C104</f>
@@ -38823,35 +38868,35 @@
     <col min="19" max="19" width="14.6640625" customWidth="1"/>
     <col min="20" max="23" width="13.5" customWidth="1"/>
     <col min="24" max="24" width="19.33203125" customWidth="1"/>
-    <col min="30" max="30" width="10.83203125" style="52"/>
+    <col min="30" max="30" width="10.83203125" style="51"/>
     <col min="31" max="34" width="10.83203125" style="4"/>
-    <col min="35" max="35" width="10.83203125" style="51"/>
+    <col min="35" max="35" width="10.83203125" style="50"/>
     <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.83203125" style="51"/>
+    <col min="42" max="42" width="10.83203125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="24" x14ac:dyDescent="0.3">
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100" t="s">
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
     </row>
     <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -38879,25 +38924,25 @@
       <c r="H2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="67" t="s">
         <v>255</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="67" t="s">
         <v>259</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -38906,25 +38951,25 @@
       <c r="Q2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="T2" s="68" t="s">
+      <c r="T2" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="U2" s="68" t="s">
+      <c r="U2" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="W2" s="68" t="s">
+      <c r="W2" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="X2" s="68" t="s">
+      <c r="X2" s="67" t="s">
         <v>270</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -38942,7 +38987,7 @@
       <c r="AC2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AD2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -38957,7 +39002,7 @@
       <c r="AH2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="32" t="s">
         <v>75</v>
       </c>
       <c r="AJ2" s="1" t="s">
@@ -38978,7 +39023,7 @@
       <c r="AO2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AP2" s="32" t="s">
         <v>107</v>
       </c>
     </row>
@@ -39000,7 +39045,7 @@
       <c r="J3" t="s">
         <v>409</v>
       </c>
-      <c r="AD3" s="51"/>
+      <c r="AD3" s="50"/>
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
@@ -39024,7 +39069,7 @@
       <c r="J4" t="s">
         <v>409</v>
       </c>
-      <c r="AD4" s="51"/>
+      <c r="AD4" s="50"/>
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
@@ -39048,7 +39093,7 @@
       <c r="J5" t="s">
         <v>409</v>
       </c>
-      <c r="AD5" s="51"/>
+      <c r="AD5" s="50"/>
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
@@ -39072,7 +39117,7 @@
       <c r="J6" t="s">
         <v>409</v>
       </c>
-      <c r="AD6" s="51"/>
+      <c r="AD6" s="50"/>
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
@@ -39096,7 +39141,7 @@
       <c r="J7" t="s">
         <v>409</v>
       </c>
-      <c r="AD7" s="51"/>
+      <c r="AD7" s="50"/>
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
@@ -39145,7 +39190,7 @@
       <c r="J9">
         <v>28</v>
       </c>
-      <c r="AD9" s="52">
+      <c r="AD9" s="51">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="AE9" s="4">
@@ -39157,7 +39202,7 @@
       <c r="AG9" s="4">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="AI9" s="51">
+      <c r="AI9" s="50">
         <v>470</v>
       </c>
       <c r="AJ9">
@@ -39194,7 +39239,7 @@
       <c r="J10">
         <v>28</v>
       </c>
-      <c r="AD10" s="52">
+      <c r="AD10" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="AE10" s="4">
@@ -39206,7 +39251,7 @@
       <c r="AG10" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="AI10" s="51">
+      <c r="AI10" s="50">
         <v>730</v>
       </c>
       <c r="AJ10">
@@ -39243,7 +39288,7 @@
       <c r="J11">
         <v>28</v>
       </c>
-      <c r="AD11" s="52">
+      <c r="AD11" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="AE11" s="4">
@@ -39255,7 +39300,7 @@
       <c r="AG11" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="AI11" s="51">
+      <c r="AI11" s="50">
         <v>710</v>
       </c>
       <c r="AJ11">
@@ -39292,7 +39337,7 @@
       <c r="J12">
         <v>28</v>
       </c>
-      <c r="AD12" s="52">
+      <c r="AD12" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="AE12" s="4">
@@ -39304,7 +39349,7 @@
       <c r="AG12" s="4">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AI12" s="51">
+      <c r="AI12" s="50">
         <v>690</v>
       </c>
       <c r="AJ12">
@@ -39428,13 +39473,13 @@
       <c r="D19" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="56"/>
-      <c r="AP19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="55"/>
+      <c r="AP19" s="55"/>
     </row>
     <row r="20" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="str">
@@ -39451,13 +39496,13 @@
       <c r="D20" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="56"/>
-      <c r="AP20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="55"/>
+      <c r="AP20" s="55"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
@@ -39548,124 +39593,124 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="str">
+    <row r="26" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="str">
         <f>rearing!A26</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B26" s="41" t="str">
+      <c r="B26" s="40" t="str">
         <f>rearing!C26</f>
         <v>FeSO4-20</v>
       </c>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="53"/>
-      <c r="AP26" s="53"/>
-    </row>
-    <row r="27" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="str">
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="52"/>
+      <c r="AP26" s="52"/>
+    </row>
+    <row r="27" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="str">
         <f>rearing!A27</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="40" t="str">
         <f>rearing!C27</f>
         <v>FeSO4-30</v>
       </c>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="53"/>
-      <c r="AP27" s="53"/>
-    </row>
-    <row r="28" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="str">
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="54"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="52"/>
+      <c r="AP27" s="52"/>
+    </row>
+    <row r="28" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="str">
         <f>rearing!A28</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B28" s="41" t="str">
+      <c r="B28" s="40" t="str">
         <f>rearing!C28</f>
         <v>FeSO4-60</v>
       </c>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="53"/>
-      <c r="AP28" s="53"/>
-    </row>
-    <row r="29" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="str">
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="54"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="52"/>
+      <c r="AP28" s="52"/>
+    </row>
+    <row r="29" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="str">
         <f>rearing!A29</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B29" s="41" t="str">
+      <c r="B29" s="40" t="str">
         <f>rearing!C29</f>
         <v>FeAA-5</v>
       </c>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="53"/>
-      <c r="AP29" s="53"/>
-    </row>
-    <row r="30" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="str">
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="52"/>
+      <c r="AP29" s="52"/>
+    </row>
+    <row r="30" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="str">
         <f>rearing!A30</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B30" s="41" t="str">
+      <c r="B30" s="40" t="str">
         <f>rearing!C30</f>
         <v>FeAA-10</v>
       </c>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="53"/>
-      <c r="AP30" s="53"/>
-    </row>
-    <row r="31" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="str">
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="52"/>
+      <c r="AP30" s="52"/>
+    </row>
+    <row r="31" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="str">
         <f>rearing!A31</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B31" s="41" t="str">
+      <c r="B31" s="40" t="str">
         <f>rearing!C31</f>
         <v>FeAA-20</v>
       </c>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="55"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="53"/>
-      <c r="AP31" s="53"/>
-    </row>
-    <row r="32" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="str">
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="52"/>
+      <c r="AP31" s="52"/>
+    </row>
+    <row r="32" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="str">
         <f>rearing!A32</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B32" s="41" t="str">
+      <c r="B32" s="40" t="str">
         <f>rearing!C32</f>
         <v>Control</v>
       </c>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="53"/>
-      <c r="AP32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="54"/>
+      <c r="AI32" s="52"/>
+      <c r="AP32" s="52"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
@@ -40103,7 +40148,7 @@
       <c r="N49">
         <v>677.3</v>
       </c>
-      <c r="O49" s="67">
+      <c r="O49" s="66">
         <f>N49*5.12%</f>
         <v>34.677759999999999</v>
       </c>
@@ -40138,7 +40183,7 @@
       <c r="N50">
         <v>626.5</v>
       </c>
-      <c r="O50" s="67">
+      <c r="O50" s="66">
         <f>N50*5.37%</f>
         <v>33.643049999999995</v>
       </c>
@@ -40269,7 +40314,7 @@
       <c r="I53" t="s">
         <v>272</v>
       </c>
-      <c r="AD53" s="52">
+      <c r="AD53" s="51">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="AE53" s="4">
@@ -40284,7 +40329,7 @@
       <c r="AH53" s="4">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="AI53" s="51">
+      <c r="AI53" s="50">
         <v>4</v>
       </c>
       <c r="AJ53">
@@ -40776,7 +40821,7 @@
       <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="AD65" s="52">
+      <c r="AD65" s="51">
         <v>9.1500000000000001E-3</v>
       </c>
       <c r="AE65" s="4">
@@ -40791,22 +40836,22 @@
       <c r="AH65" s="4">
         <v>4.2199999999999998E-3</v>
       </c>
-      <c r="AI65" s="51">
+      <c r="AI65" s="50">
         <v>0.24349999999999999</v>
       </c>
       <c r="AJ65">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="AK65" s="70">
+      <c r="AK65" s="69">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="AL65" s="70">
+      <c r="AL65" s="69">
         <v>0.10589999999999999</v>
       </c>
-      <c r="AM65" s="70">
+      <c r="AM65" s="69">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="AP65" s="73">
+      <c r="AP65" s="72">
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
@@ -40831,7 +40876,7 @@
       <c r="G66" t="s">
         <v>310</v>
       </c>
-      <c r="AD66" s="52">
+      <c r="AD66" s="51">
         <v>8.6300000000000005E-3</v>
       </c>
       <c r="AE66" s="4">
@@ -40846,7 +40891,7 @@
       <c r="AH66" s="4">
         <v>3.3800000000000002E-3</v>
       </c>
-      <c r="AI66" s="51">
+      <c r="AI66" s="50">
         <v>0.1095</v>
       </c>
       <c r="AJ66">
@@ -40858,10 +40903,10 @@
       <c r="AL66">
         <v>0.1358</v>
       </c>
-      <c r="AM66" s="70">
+      <c r="AM66" s="69">
         <v>1.11E-2</v>
       </c>
-      <c r="AP66" s="73">
+      <c r="AP66" s="72">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
@@ -41012,7 +41057,7 @@
       <c r="D76" t="s">
         <v>284</v>
       </c>
-      <c r="F76" s="86" t="s">
+      <c r="F76" s="85" t="s">
         <v>462</v>
       </c>
     </row>
@@ -41031,7 +41076,7 @@
       <c r="D77" t="s">
         <v>284</v>
       </c>
-      <c r="F77" s="86" t="s">
+      <c r="F77" s="85" t="s">
         <v>462</v>
       </c>
     </row>
@@ -41050,7 +41095,7 @@
       <c r="D78" t="s">
         <v>284</v>
       </c>
-      <c r="F78" s="86" t="s">
+      <c r="F78" s="85" t="s">
         <v>462</v>
       </c>
     </row>
@@ -46311,7 +46356,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E236">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46506,7 +46551,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -46662,47 +46707,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84">
+    <row r="4" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="83">
         <v>3</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="83">
         <v>3</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="83">
         <v>1</v>
       </c>
-      <c r="E4" s="84">
-        <v>0</v>
-      </c>
-      <c r="F4" s="84">
+      <c r="E4" s="83">
+        <v>0</v>
+      </c>
+      <c r="F4" s="83">
         <v>1</v>
       </c>
-      <c r="G4" s="84">
-        <v>0</v>
-      </c>
-      <c r="H4" s="84">
+      <c r="G4" s="83">
+        <v>0</v>
+      </c>
+      <c r="H4" s="83">
         <v>1</v>
       </c>
-      <c r="I4" s="84">
-        <v>0</v>
-      </c>
-      <c r="J4" s="84">
-        <v>0</v>
-      </c>
-      <c r="L4" s="84">
-        <v>0</v>
-      </c>
-      <c r="M4" s="84">
-        <v>0</v>
-      </c>
-      <c r="N4" s="84">
-        <v>0</v>
-      </c>
-      <c r="O4" s="84" t="s">
+      <c r="I4" s="83">
+        <v>0</v>
+      </c>
+      <c r="J4" s="83">
+        <v>0</v>
+      </c>
+      <c r="L4" s="83">
+        <v>0</v>
+      </c>
+      <c r="M4" s="83">
+        <v>0</v>
+      </c>
+      <c r="N4" s="83">
+        <v>0</v>
+      </c>
+      <c r="O4" s="83" t="s">
         <v>48</v>
       </c>
     </row>
@@ -46744,47 +46789,47 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="64" t="s">
         <v>599</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <v>4</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="64">
         <v>4</v>
       </c>
-      <c r="E6" s="65">
-        <v>0</v>
-      </c>
-      <c r="F6" s="65">
+      <c r="E6" s="64">
+        <v>0</v>
+      </c>
+      <c r="F6" s="64">
         <v>1</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="64">
         <v>1</v>
       </c>
-      <c r="H6" s="65">
-        <v>0</v>
-      </c>
-      <c r="I6" s="65">
-        <v>0</v>
-      </c>
-      <c r="J6" s="65">
-        <v>0</v>
-      </c>
-      <c r="L6" s="65">
-        <v>0</v>
-      </c>
-      <c r="M6" s="65">
-        <v>0</v>
-      </c>
-      <c r="N6" s="65">
-        <v>0</v>
-      </c>
-      <c r="O6" s="65" t="s">
+      <c r="H6" s="64">
+        <v>0</v>
+      </c>
+      <c r="I6" s="64">
+        <v>0</v>
+      </c>
+      <c r="J6" s="64">
+        <v>0</v>
+      </c>
+      <c r="L6" s="64">
+        <v>0</v>
+      </c>
+      <c r="M6" s="64">
+        <v>0</v>
+      </c>
+      <c r="N6" s="64">
+        <v>0</v>
+      </c>
+      <c r="O6" s="64" t="s">
         <v>97</v>
       </c>
     </row>
@@ -46908,135 +46953,135 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84">
+    <row r="10" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="83">
         <v>9</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="83">
         <v>1</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="83">
         <v>3</v>
       </c>
-      <c r="E10" s="84">
-        <v>0</v>
-      </c>
-      <c r="F10" s="84">
+      <c r="E10" s="83">
+        <v>0</v>
+      </c>
+      <c r="F10" s="83">
         <v>1</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="83">
         <v>1</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="83">
         <v>1</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="83">
         <v>1</v>
       </c>
-      <c r="J10" s="84">
-        <v>0</v>
-      </c>
-      <c r="L10" s="84">
-        <v>0</v>
-      </c>
-      <c r="M10" s="84">
-        <v>0</v>
-      </c>
-      <c r="N10" s="84">
-        <v>0</v>
-      </c>
-      <c r="O10" s="84" t="s">
+      <c r="J10" s="83">
+        <v>0</v>
+      </c>
+      <c r="L10" s="83">
+        <v>0</v>
+      </c>
+      <c r="M10" s="83">
+        <v>0</v>
+      </c>
+      <c r="N10" s="83">
+        <v>0</v>
+      </c>
+      <c r="O10" s="83" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84">
+    <row r="11" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="83">
         <v>10</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="83">
         <v>1</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="83">
         <v>3</v>
       </c>
-      <c r="E11" s="84">
-        <v>0</v>
-      </c>
-      <c r="F11" s="84">
+      <c r="E11" s="83">
+        <v>0</v>
+      </c>
+      <c r="F11" s="83">
         <v>1</v>
       </c>
-      <c r="G11" s="84">
-        <v>0</v>
-      </c>
-      <c r="H11" s="84">
-        <v>0</v>
-      </c>
-      <c r="I11" s="84">
-        <v>0</v>
-      </c>
-      <c r="J11" s="84">
-        <v>0</v>
-      </c>
-      <c r="L11" s="84">
-        <v>0</v>
-      </c>
-      <c r="M11" s="84">
-        <v>0</v>
-      </c>
-      <c r="N11" s="84">
-        <v>0</v>
-      </c>
-      <c r="O11" s="84" t="s">
+      <c r="G11" s="83">
+        <v>0</v>
+      </c>
+      <c r="H11" s="83">
+        <v>0</v>
+      </c>
+      <c r="I11" s="83">
+        <v>0</v>
+      </c>
+      <c r="J11" s="83">
+        <v>0</v>
+      </c>
+      <c r="L11" s="83">
+        <v>0</v>
+      </c>
+      <c r="M11" s="83">
+        <v>0</v>
+      </c>
+      <c r="N11" s="83">
+        <v>0</v>
+      </c>
+      <c r="O11" s="83" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="40">
         <v>7</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="40">
         <v>3</v>
       </c>
-      <c r="E12" s="41">
-        <v>0</v>
-      </c>
-      <c r="F12" s="41">
+      <c r="E12" s="40">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40">
         <v>1</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <v>1</v>
       </c>
-      <c r="H12" s="41">
-        <v>0</v>
-      </c>
-      <c r="I12" s="41">
-        <v>0</v>
-      </c>
-      <c r="J12" s="41">
-        <v>0</v>
-      </c>
-      <c r="L12" s="41">
-        <v>0</v>
-      </c>
-      <c r="M12" s="41">
+      <c r="H12" s="40">
+        <v>0</v>
+      </c>
+      <c r="I12" s="40">
+        <v>0</v>
+      </c>
+      <c r="J12" s="40">
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
+        <v>0</v>
+      </c>
+      <c r="M12" s="40">
         <v>1</v>
       </c>
-      <c r="N12" s="41">
-        <v>0</v>
-      </c>
-      <c r="O12" s="41" t="s">
+      <c r="N12" s="40">
+        <v>0</v>
+      </c>
+      <c r="O12" s="40" t="s">
         <v>181</v>
       </c>
     </row>
@@ -47304,35 +47349,35 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84">
+    <row r="19" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="83">
         <v>18</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="83">
         <v>2</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="83">
         <v>3</v>
       </c>
-      <c r="E19" s="84">
-        <v>0</v>
-      </c>
-      <c r="F19" s="84">
+      <c r="E19" s="83">
+        <v>0</v>
+      </c>
+      <c r="F19" s="83">
         <v>1</v>
       </c>
-      <c r="H19" s="84">
-        <v>0</v>
-      </c>
-      <c r="I19" s="84">
-        <v>0</v>
-      </c>
-      <c r="L19" s="84">
-        <v>0</v>
-      </c>
-      <c r="O19" s="84" t="s">
+      <c r="H19" s="83">
+        <v>0</v>
+      </c>
+      <c r="I19" s="83">
+        <v>0</v>
+      </c>
+      <c r="L19" s="83">
+        <v>0</v>
+      </c>
+      <c r="O19" s="83" t="s">
         <v>223</v>
       </c>
     </row>
@@ -57463,11 +57508,11 @@
   </sheetPr>
   <dimension ref="A1:U116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57491,27 +57536,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -58400,13 +58445,12 @@
       <c r="M21" s="7">
         <v>4</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="101">
         <f>O21/(G21/1000)</f>
-        <v>400</v>
-      </c>
-      <c r="O21" s="12">
-        <f>(L21-K21)*M21</f>
-        <v>27.200000000000003</v>
+        <v>983.82352941176475</v>
+      </c>
+      <c r="O21" s="100">
+        <v>66.900000000000006</v>
       </c>
       <c r="R21" s="10">
         <v>5.2999999999999999E-2</v>
@@ -58462,13 +58506,12 @@
       <c r="M22" s="7">
         <v>4</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="101">
         <f t="shared" ref="N22:N23" si="3">O22/(G22/1000)</f>
-        <v>400</v>
-      </c>
-      <c r="O22" s="12">
-        <f t="shared" ref="O22:O23" si="4">(L22-K22)*M22</f>
-        <v>27.200000000000003</v>
+        <v>982.35294117647049</v>
+      </c>
+      <c r="O22" s="100">
+        <v>66.8</v>
       </c>
       <c r="R22" s="10">
         <v>2.9000000000000001E-2</v>
@@ -58524,13 +58567,12 @@
       <c r="M23" s="7">
         <v>4</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="101">
         <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="O23" s="12">
-        <f t="shared" si="4"/>
-        <v>27.200000000000003</v>
+        <v>982.35294117647049</v>
+      </c>
+      <c r="O23" s="100">
+        <v>66.8</v>
       </c>
       <c r="R23" s="10">
         <v>2.8000000000000001E-2</v>
@@ -58620,451 +58662,451 @@
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
     </row>
-    <row r="26" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="41">
         <v>111</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>96</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <v>0.1</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>3</v>
       </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="42">
-        <f t="shared" ref="L26:L32" si="5">I26*J26</f>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
+        <f t="shared" ref="L26:L32" si="4">I26*J26</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <f>(G26/1000)/L26</f>
         <v>0.36999999999999994</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="41">
         <v>10</v>
       </c>
       <c r="O26" s="12">
         <f>I26*J26*M26</f>
         <v>0.111</v>
       </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42">
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41">
         <v>27</v>
       </c>
-      <c r="T26" s="42">
-        <f t="shared" ref="T26:T32" si="6">AVERAGE(5.06,7.81)</f>
+      <c r="T26" s="41">
+        <f t="shared" ref="T26:T32" si="5">AVERAGE(5.06,7.81)</f>
         <v>6.4349999999999996</v>
       </c>
-      <c r="U26" s="42">
-        <f t="shared" ref="U26:U32" si="7">AVERAGE(5.6,7.3)</f>
+      <c r="U26" s="41">
+        <f t="shared" ref="U26:U32" si="6">AVERAGE(5.6,7.3)</f>
         <v>6.4499999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <v>113</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <v>96</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <v>0.1</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="41">
         <v>3</v>
       </c>
-      <c r="K27" s="42">
-        <v>0</v>
-      </c>
-      <c r="L27" s="42">
+      <c r="K27" s="41">
+        <v>0</v>
+      </c>
+      <c r="L27" s="41">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M27" s="41">
+        <f t="shared" ref="M27:M32" si="7">(G27/1000)/L27</f>
+        <v>0.37666666666666659</v>
+      </c>
+      <c r="N27" s="41">
+        <v>10</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" ref="O27:O32" si="8">I27*J27*M27</f>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41">
+        <v>27</v>
+      </c>
+      <c r="T27" s="41">
         <f t="shared" si="5"/>
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="U27" s="41">
+        <f t="shared" si="6"/>
+        <v>6.4499999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="41">
+        <v>109</v>
+      </c>
+      <c r="H28" s="41">
+        <v>96</v>
+      </c>
+      <c r="I28" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="41">
+        <v>3</v>
+      </c>
+      <c r="K28" s="41">
+        <v>0</v>
+      </c>
+      <c r="L28" s="41">
+        <f t="shared" si="4"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="M27" s="42">
-        <f t="shared" ref="M27:M32" si="8">(G27/1000)/L27</f>
-        <v>0.37666666666666659</v>
-      </c>
-      <c r="N27" s="42">
+      <c r="M28" s="41">
+        <f t="shared" si="7"/>
+        <v>0.36333333333333329</v>
+      </c>
+      <c r="N28" s="41">
         <v>10</v>
       </c>
-      <c r="O27" s="12">
-        <f t="shared" ref="O27:O32" si="9">I27*J27*M27</f>
-        <v>0.11299999999999999</v>
-      </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42">
+      <c r="O28" s="12">
+        <f t="shared" si="8"/>
+        <v>0.109</v>
+      </c>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41">
         <v>27</v>
       </c>
-      <c r="T27" s="42">
+      <c r="T28" s="41">
+        <f t="shared" si="5"/>
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="U28" s="41">
         <f t="shared" si="6"/>
+        <v>6.4499999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="41">
+        <v>118</v>
+      </c>
+      <c r="H29" s="41">
+        <v>96</v>
+      </c>
+      <c r="I29" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="41">
+        <v>3</v>
+      </c>
+      <c r="K29" s="41">
+        <v>0</v>
+      </c>
+      <c r="L29" s="41">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M29" s="41">
+        <f t="shared" si="7"/>
+        <v>0.39333333333333326</v>
+      </c>
+      <c r="N29" s="41">
+        <v>10</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="8"/>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41">
+        <v>27</v>
+      </c>
+      <c r="T29" s="41">
+        <f t="shared" si="5"/>
         <v>6.4349999999999996</v>
       </c>
-      <c r="U27" s="42">
+      <c r="U29" s="41">
+        <f t="shared" si="6"/>
+        <v>6.4499999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="41">
+        <v>121</v>
+      </c>
+      <c r="H30" s="41">
+        <v>96</v>
+      </c>
+      <c r="I30" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="41">
+        <v>3</v>
+      </c>
+      <c r="K30" s="41">
+        <v>0</v>
+      </c>
+      <c r="L30" s="41">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M30" s="41">
         <f t="shared" si="7"/>
+        <v>0.40333333333333327</v>
+      </c>
+      <c r="N30" s="41">
+        <v>10</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="8"/>
+        <v>0.121</v>
+      </c>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41">
+        <v>27</v>
+      </c>
+      <c r="T30" s="41">
+        <f t="shared" si="5"/>
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="U30" s="41">
+        <f t="shared" si="6"/>
         <v>6.4499999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+    <row r="31" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B31" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="42" t="s">
+      <c r="C31" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E31" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F31" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="42">
-        <v>109</v>
-      </c>
-      <c r="H28" s="42">
+      <c r="G31" s="41">
+        <v>118</v>
+      </c>
+      <c r="H31" s="41">
         <v>96</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I31" s="41">
         <v>0.1</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J31" s="41">
         <v>3</v>
       </c>
-      <c r="K28" s="42">
-        <v>0</v>
-      </c>
-      <c r="L28" s="42">
+      <c r="K31" s="41">
+        <v>0</v>
+      </c>
+      <c r="L31" s="41">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M31" s="41">
+        <f t="shared" si="7"/>
+        <v>0.39333333333333326</v>
+      </c>
+      <c r="N31" s="41">
+        <v>10</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="8"/>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41">
+        <v>27</v>
+      </c>
+      <c r="T31" s="41">
         <f t="shared" si="5"/>
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="U31" s="41">
+        <f t="shared" si="6"/>
+        <v>6.4499999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="41">
+        <v>110</v>
+      </c>
+      <c r="H32" s="41">
+        <v>96</v>
+      </c>
+      <c r="I32" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="41">
+        <v>3</v>
+      </c>
+      <c r="K32" s="41">
+        <v>0</v>
+      </c>
+      <c r="L32" s="41">
+        <f t="shared" si="4"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M32" s="41">
+        <f t="shared" si="7"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="N32" s="41">
+        <v>10</v>
+      </c>
+      <c r="O32" s="12">
         <f t="shared" si="8"/>
-        <v>0.36333333333333329</v>
-      </c>
-      <c r="N28" s="42">
-        <v>10</v>
-      </c>
-      <c r="O28" s="12">
-        <f t="shared" si="9"/>
-        <v>0.109</v>
-      </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41">
         <v>27</v>
       </c>
-      <c r="T28" s="42">
+      <c r="T32" s="41">
+        <f t="shared" si="5"/>
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="U32" s="41">
         <f t="shared" si="6"/>
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="U28" s="42">
-        <f t="shared" si="7"/>
-        <v>6.4499999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="42">
-        <v>118</v>
-      </c>
-      <c r="H29" s="42">
-        <v>96</v>
-      </c>
-      <c r="I29" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="42">
-        <v>3</v>
-      </c>
-      <c r="K29" s="42">
-        <v>0</v>
-      </c>
-      <c r="L29" s="42">
-        <f t="shared" si="5"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="M29" s="42">
-        <f t="shared" si="8"/>
-        <v>0.39333333333333326</v>
-      </c>
-      <c r="N29" s="42">
-        <v>10</v>
-      </c>
-      <c r="O29" s="12">
-        <f t="shared" si="9"/>
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42">
-        <v>27</v>
-      </c>
-      <c r="T29" s="42">
-        <f t="shared" si="6"/>
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="U29" s="42">
-        <f t="shared" si="7"/>
-        <v>6.4499999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" s="42">
-        <v>121</v>
-      </c>
-      <c r="H30" s="42">
-        <v>96</v>
-      </c>
-      <c r="I30" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="42">
-        <v>3</v>
-      </c>
-      <c r="K30" s="42">
-        <v>0</v>
-      </c>
-      <c r="L30" s="42">
-        <f t="shared" si="5"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="M30" s="42">
-        <f t="shared" si="8"/>
-        <v>0.40333333333333327</v>
-      </c>
-      <c r="N30" s="42">
-        <v>10</v>
-      </c>
-      <c r="O30" s="12">
-        <f t="shared" si="9"/>
-        <v>0.121</v>
-      </c>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42">
-        <v>27</v>
-      </c>
-      <c r="T30" s="42">
-        <f t="shared" si="6"/>
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="U30" s="42">
-        <f t="shared" si="7"/>
-        <v>6.4499999999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" s="42">
-        <v>118</v>
-      </c>
-      <c r="H31" s="42">
-        <v>96</v>
-      </c>
-      <c r="I31" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="J31" s="42">
-        <v>3</v>
-      </c>
-      <c r="K31" s="42">
-        <v>0</v>
-      </c>
-      <c r="L31" s="42">
-        <f t="shared" si="5"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="M31" s="42">
-        <f t="shared" si="8"/>
-        <v>0.39333333333333326</v>
-      </c>
-      <c r="N31" s="42">
-        <v>10</v>
-      </c>
-      <c r="O31" s="12">
-        <f t="shared" si="9"/>
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42">
-        <v>27</v>
-      </c>
-      <c r="T31" s="42">
-        <f t="shared" si="6"/>
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="U31" s="42">
-        <f t="shared" si="7"/>
-        <v>6.4499999999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="42">
-        <v>110</v>
-      </c>
-      <c r="H32" s="42">
-        <v>96</v>
-      </c>
-      <c r="I32" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="42">
-        <v>3</v>
-      </c>
-      <c r="K32" s="42">
-        <v>0</v>
-      </c>
-      <c r="L32" s="42">
-        <f t="shared" si="5"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="M32" s="42">
-        <f t="shared" si="8"/>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="N32" s="42">
-        <v>10</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" si="9"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42">
-        <v>27</v>
-      </c>
-      <c r="T32" s="42">
-        <f t="shared" si="6"/>
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="U32" s="42">
-        <f t="shared" si="7"/>
         <v>6.4499999999999993</v>
       </c>
     </row>
@@ -59142,7 +59184,7 @@
         <v>15</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" ref="O34:O38" si="10">I34*J34*M34</f>
+        <f t="shared" ref="O34:O38" si="9">I34*J34*M34</f>
         <v>540</v>
       </c>
       <c r="Q34" s="7">
@@ -59184,7 +59226,7 @@
         <v>15</v>
       </c>
       <c r="O35" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
       <c r="Q35" s="7">
@@ -59226,7 +59268,7 @@
         <v>15</v>
       </c>
       <c r="O36" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
       <c r="Q36" s="7">
@@ -59268,7 +59310,7 @@
         <v>15</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
       <c r="Q37" s="7">
@@ -59310,7 +59352,7 @@
         <v>15</v>
       </c>
       <c r="O38" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
       <c r="Q38" s="7">
@@ -59590,7 +59632,7 @@
         <v>15</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44:O45" si="11">M44*J44*I44</f>
+        <f t="shared" ref="O44:O45" si="10">M44*J44*I44</f>
         <v>540</v>
       </c>
       <c r="Q44" s="7">
@@ -59632,7 +59674,7 @@
         <v>15</v>
       </c>
       <c r="O45" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="Q45" s="7">
@@ -59677,7 +59719,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" ref="L46:L64" si="12">I46*J46+K46</f>
+        <f t="shared" ref="L46:L64" si="11">I46*J46+K46</f>
         <v>13</v>
       </c>
       <c r="M46" s="12">
@@ -59737,11 +59779,11 @@
         <v>4</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" ref="M47" si="13">N47*G47*0.001/L47</f>
+        <f t="shared" ref="M47" si="12">N47*G47*0.001/L47</f>
         <v>7.6461538461538465</v>
       </c>
       <c r="N47" s="7">
@@ -59797,7 +59839,7 @@
         <v>4</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M48" s="12">
@@ -59852,7 +59894,7 @@
         <v>4.04</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>11.24</v>
       </c>
       <c r="M49" s="7">
@@ -59904,7 +59946,7 @@
         <v>4.04</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>11.24</v>
       </c>
       <c r="M50" s="7">
@@ -59961,18 +60003,18 @@
         <v>0</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" ref="M51:M56" si="14">N51*G51*0.001/L51</f>
+        <f t="shared" ref="M51:M56" si="13">N51*G51*0.001/L51</f>
         <v>3.5893333333333333</v>
       </c>
       <c r="N51" s="7">
         <v>8</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" ref="O51:O66" si="15">N51*G51*0.001</f>
+        <f t="shared" ref="O51:O66" si="14">N51*G51*0.001</f>
         <v>0.53839999999999999</v>
       </c>
     </row>
@@ -60011,18 +60053,18 @@
         <v>0</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.5893333333333333</v>
       </c>
       <c r="N52" s="7">
         <v>8</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.53839999999999999</v>
       </c>
     </row>
@@ -60062,18 +60104,18 @@
         <v>1.42</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.12</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.9368932038834954</v>
       </c>
       <c r="N53" s="7">
         <v>300</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" si="15"/>
+        <f>N53*G53*0.001</f>
         <v>20.34</v>
       </c>
       <c r="P53" s="7">
@@ -60123,18 +60165,18 @@
         <v>1.42</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.12</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.9368932038834954</v>
       </c>
       <c r="N54" s="7">
         <v>300</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20.34</v>
       </c>
       <c r="P54" s="7">
@@ -60184,18 +60226,18 @@
         <v>1.42</v>
       </c>
       <c r="L55" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.12</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.9368932038834954</v>
       </c>
       <c r="N55" s="7">
         <v>300</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20.34</v>
       </c>
       <c r="P55" s="7">
@@ -60244,18 +60286,18 @@
         <v>4</v>
       </c>
       <c r="L56" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.4923076923076923</v>
       </c>
       <c r="N56" s="7">
         <v>140</v>
       </c>
       <c r="O56" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>71.400000000000006</v>
       </c>
     </row>
@@ -60294,7 +60336,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M57" s="12">
@@ -60305,7 +60347,7 @@
         <v>140</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>71.400000000000006</v>
       </c>
     </row>
@@ -60344,7 +60386,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M58" s="12">
@@ -60355,7 +60397,7 @@
         <v>140</v>
       </c>
       <c r="O58" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>71.400000000000006</v>
       </c>
     </row>
@@ -60394,18 +60436,18 @@
         <v>4</v>
       </c>
       <c r="L59" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" ref="M59:M64" si="16">N59*G59*0.001/L59</f>
+        <f t="shared" ref="M59:M64" si="15">N59*G59*0.001/L59</f>
         <v>6.6089815384615385</v>
       </c>
       <c r="N59" s="7">
         <v>120</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>85.916759999999996</v>
       </c>
     </row>
@@ -60444,18 +60486,18 @@
         <v>4</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>6.6089815384615385</v>
       </c>
       <c r="N60" s="7">
         <v>120</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>85.916759999999996</v>
       </c>
     </row>
@@ -60494,18 +60536,18 @@
         <v>4</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>6.6089815384615385</v>
       </c>
       <c r="N61" s="7">
         <v>120</v>
       </c>
       <c r="O61" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>85.916759999999996</v>
       </c>
     </row>
@@ -60544,18 +60586,18 @@
         <v>4</v>
       </c>
       <c r="L62" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>7.1274075384615383</v>
       </c>
       <c r="N62" s="7">
         <v>124.6</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>92.656297999999992</v>
       </c>
     </row>
@@ -60594,18 +60636,18 @@
         <v>4</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>7.1274075384615383</v>
       </c>
       <c r="N63" s="7">
         <v>124.6</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>92.656297999999992</v>
       </c>
     </row>
@@ -60644,18 +60686,18 @@
         <v>4</v>
       </c>
       <c r="L64" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>7.1274075384615383</v>
       </c>
       <c r="N64" s="7">
         <v>124.6</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>92.656297999999992</v>
       </c>
     </row>
@@ -60704,7 +60746,7 @@
         <v>200</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.780000000000003</v>
       </c>
       <c r="P65" s="7">
@@ -60766,7 +60808,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.780000000000003</v>
       </c>
       <c r="P66" s="7">
@@ -60854,11 +60896,11 @@
         <v>62.46</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68" si="17">L68*M68</f>
+        <f t="shared" ref="O68" si="16">L68*M68</f>
         <v>8119.8</v>
       </c>
       <c r="P68" s="12">
-        <f t="shared" ref="P68:P69" si="18">L68*R68</f>
+        <f t="shared" ref="P68:P69" si="17">L68*R68</f>
         <v>2.145</v>
       </c>
       <c r="Q68" s="7">
@@ -60906,7 +60948,7 @@
         <v>119993.99999999999</v>
       </c>
       <c r="P69" s="12">
-        <f t="shared" si="18"/>
+        <f>L69*R69</f>
         <v>12.459999999999999</v>
       </c>
       <c r="Q69" s="7">
@@ -60965,9 +61007,8 @@
       <c r="L70" s="7">
         <v>3.81</v>
       </c>
-      <c r="M70" s="12">
-        <f>O70/(J70*I70)</f>
-        <v>1.6207222222222222</v>
+      <c r="M70" s="100">
+        <v>1.6</v>
       </c>
       <c r="N70" s="7">
         <v>33</v>
@@ -60975,8 +61016,21 @@
       <c r="O70" s="7">
         <v>2.9173</v>
       </c>
+      <c r="P70" s="12">
+        <f t="shared" ref="P70:P73" si="18">L70*R70</f>
+        <v>5.6388000000000001E-2</v>
+      </c>
       <c r="R70" s="10">
         <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="S70" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="T70" s="7">
+        <v>7</v>
+      </c>
+      <c r="U70" s="7">
+        <v>7.7</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -61017,15 +61071,30 @@
       <c r="L71" s="7">
         <v>3.81</v>
       </c>
-      <c r="M71" s="12">
-        <f t="shared" ref="M71:M73" si="20">O71/(J71*I71)</f>
-        <v>1.6207222222222222</v>
+      <c r="M71" s="100">
+        <v>1.6</v>
       </c>
       <c r="N71" s="7">
         <v>33</v>
       </c>
       <c r="O71" s="7">
         <v>2.9173</v>
+      </c>
+      <c r="P71" s="12">
+        <f t="shared" si="18"/>
+        <v>5.6388000000000001E-2</v>
+      </c>
+      <c r="R71" s="10">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="S71" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="T71" s="7">
+        <v>7</v>
+      </c>
+      <c r="U71" s="7">
+        <v>7.7</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -61066,15 +61135,30 @@
       <c r="L72" s="7">
         <v>3.81</v>
       </c>
-      <c r="M72" s="12">
-        <f t="shared" si="20"/>
-        <v>1.6303888888888887</v>
+      <c r="M72" s="100">
+        <v>1.6</v>
       </c>
       <c r="N72" s="7">
         <v>33</v>
       </c>
       <c r="O72" s="7">
         <v>2.9346999999999999</v>
+      </c>
+      <c r="P72" s="12">
+        <f t="shared" si="18"/>
+        <v>5.6388000000000001E-2</v>
+      </c>
+      <c r="R72" s="10">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="S72" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="T72" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="U72" s="7">
+        <v>7.8</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -61115,15 +61199,30 @@
       <c r="L73" s="7">
         <v>3.81</v>
       </c>
-      <c r="M73" s="12">
-        <f t="shared" si="20"/>
-        <v>1.6303888888888887</v>
+      <c r="M73" s="100">
+        <v>1.6</v>
       </c>
       <c r="N73" s="7">
         <v>33</v>
       </c>
       <c r="O73" s="7">
         <v>2.9346999999999999</v>
+      </c>
+      <c r="P73" s="12">
+        <f t="shared" si="18"/>
+        <v>5.6388000000000001E-2</v>
+      </c>
+      <c r="R73" s="10">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="S73" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="T73" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="U73" s="7">
+        <v>7.8</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -61170,7 +61269,13 @@
         <v>16.832999999999998</v>
       </c>
       <c r="S74" s="7">
-        <v>25</v>
+        <v>27.3</v>
+      </c>
+      <c r="T74" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="U74" s="7">
+        <v>7.8</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -61217,7 +61322,13 @@
         <v>16.565999999999999</v>
       </c>
       <c r="S75" s="7">
-        <v>25</v>
+        <v>27.1</v>
+      </c>
+      <c r="T75" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="U75" s="7">
+        <v>7.8</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -61624,7 +61735,7 @@
         <v>170</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" ref="H94:H99" si="21">365/2</f>
+        <f t="shared" ref="H94:H99" si="20">365/2</f>
         <v>182.5</v>
       </c>
       <c r="I94" s="7">
@@ -61668,7 +61779,7 @@
         <v>170</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>182.5</v>
       </c>
       <c r="I95" s="7">
@@ -61681,19 +61792,19 @@
         <v>1.274</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" ref="M95:M96" si="22">O95/L95</f>
+        <f t="shared" ref="M95:M96" si="21">O95/L95</f>
         <v>2.6687598116169542</v>
       </c>
       <c r="N95" s="7">
         <v>20</v>
       </c>
       <c r="O95" s="12">
-        <f t="shared" ref="O95:O96" si="23">G95*N95/1000</f>
+        <f t="shared" ref="O95:O96" si="22">G95*N95/1000</f>
         <v>3.4</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A96" s="86" t="s">
+      <c r="A96" s="85" t="s">
         <v>386</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -61712,7 +61823,7 @@
         <v>170</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>182.5</v>
       </c>
       <c r="I96" s="7">
@@ -61725,14 +61836,14 @@
         <v>1.274</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0015698587127155</v>
       </c>
       <c r="N96" s="7">
         <v>15</v>
       </c>
       <c r="O96" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2.5499999999999998</v>
       </c>
     </row>
@@ -61753,7 +61864,7 @@
         <v>387</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>182.5</v>
       </c>
       <c r="I97" s="7">
@@ -61787,7 +61898,7 @@
         <v>387</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>182.5</v>
       </c>
       <c r="I98" s="7">
@@ -61817,7 +61928,7 @@
         <v>387</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>182.5</v>
       </c>
       <c r="I99" s="7">
@@ -62122,7 +62233,7 @@
       <c r="Q109" s="7">
         <v>1</v>
       </c>
-      <c r="R109" s="74">
+      <c r="R109" s="73">
         <v>0.05</v>
       </c>
       <c r="U109" s="7">
@@ -62405,19 +62516,19 @@
       </c>
       <c r="H2">
         <f>AVERAGE(rearing!M3:M196)</f>
-        <v>16.743619625297068</v>
+        <v>16.742309083986527</v>
       </c>
       <c r="I2">
         <f>AVERAGE(rearing!N3:N196)</f>
-        <v>313.57499999999999</v>
+        <v>344.79873949579832</v>
       </c>
       <c r="J2">
         <f>AVERAGE(rearing!O3:O196)</f>
-        <v>1874.5009675047424</v>
+        <v>1876.1297346280305</v>
       </c>
       <c r="K2">
         <f>AVERAGE(rearing!P3:P196)</f>
-        <v>1.2579083333333332</v>
+        <v>1.0862625714285712</v>
       </c>
       <c r="L2">
         <f>AVERAGE(rearing!Q3:Q196)</f>
@@ -62425,19 +62536,19 @@
       </c>
       <c r="M2" s="4">
         <f>AVERAGE(rearing!R3:R196)</f>
-        <v>5.2443092939368219E-2</v>
+        <v>4.9933553410077013E-2</v>
       </c>
       <c r="N2">
         <f>AVERAGE(rearing!S3:S196)</f>
-        <v>26.170588235294122</v>
+        <v>25.947368421052634</v>
       </c>
       <c r="O2">
         <f>AVERAGE(rearing!T3:T196)</f>
-        <v>6.9115909090909105</v>
+        <v>6.8983928571428592</v>
       </c>
       <c r="P2">
         <f>AVERAGE(rearing!U3:U196)</f>
-        <v>7.0209677419354843</v>
+        <v>7.1418918918918921</v>
       </c>
     </row>
   </sheetData>
@@ -62475,29 +62586,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" x14ac:dyDescent="0.3">
-      <c r="J1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97" t="s">
+      <c r="J1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97" t="s">
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="97"/>
+      <c r="Z1" s="96"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -63157,10 +63268,10 @@
         <f>rearing!F17</f>
         <v>Belgium</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="74" t="s">
         <v>396</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H17" s="15">
@@ -63238,10 +63349,10 @@
         <f>rearing!F18</f>
         <v>Belgium</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>396</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H18" s="15">
@@ -63639,285 +63750,285 @@
         <v>USA</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="str">
+    <row r="26" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="str">
         <f>rearing!A26</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B26" s="42" t="str">
+      <c r="B26" s="41" t="str">
         <f>rearing!D26</f>
         <v>Wegevallen Experimental Facility</v>
       </c>
-      <c r="C26" s="42" t="str">
+      <c r="C26" s="41" t="str">
         <f>rearing!E26</f>
         <v>Stellenbosch</v>
       </c>
-      <c r="D26" s="42" t="str">
+      <c r="D26" s="41" t="str">
         <f>rearing!F26</f>
         <v>South Africa</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="42"/>
-    </row>
-    <row r="27" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="str">
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="41"/>
+    </row>
+    <row r="27" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="str">
         <f>rearing!A27</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B27" s="42" t="str">
+      <c r="B27" s="41" t="str">
         <f>rearing!D27</f>
         <v>Wegevallen Experimental Facility</v>
       </c>
-      <c r="C27" s="42" t="str">
+      <c r="C27" s="41" t="str">
         <f>rearing!E27</f>
         <v>Stellenbosch</v>
       </c>
-      <c r="D27" s="42" t="str">
+      <c r="D27" s="41" t="str">
         <f>rearing!F27</f>
         <v>South Africa</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="42"/>
-    </row>
-    <row r="28" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="str">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="41"/>
+    </row>
+    <row r="28" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="str">
         <f>rearing!A28</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B28" s="42" t="str">
+      <c r="B28" s="41" t="str">
         <f>rearing!D28</f>
         <v>Wegevallen Experimental Facility</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="41" t="str">
         <f>rearing!E28</f>
         <v>Stellenbosch</v>
       </c>
-      <c r="D28" s="42" t="str">
+      <c r="D28" s="41" t="str">
         <f>rearing!F28</f>
         <v>South Africa</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="42"/>
-    </row>
-    <row r="29" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="str">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="41"/>
+    </row>
+    <row r="29" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="str">
         <f>rearing!A29</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B29" s="42" t="str">
+      <c r="B29" s="41" t="str">
         <f>rearing!D29</f>
         <v>Wegevallen Experimental Facility</v>
       </c>
-      <c r="C29" s="42" t="str">
+      <c r="C29" s="41" t="str">
         <f>rearing!E29</f>
         <v>Stellenbosch</v>
       </c>
-      <c r="D29" s="42" t="str">
+      <c r="D29" s="41" t="str">
         <f>rearing!F29</f>
         <v>South Africa</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="42"/>
-    </row>
-    <row r="30" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="str">
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="41"/>
+    </row>
+    <row r="30" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="str">
         <f>rearing!A30</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>rearing!D30</f>
         <v>Wegevallen Experimental Facility</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="41" t="str">
         <f>rearing!E30</f>
         <v>Stellenbosch</v>
       </c>
-      <c r="D30" s="42" t="str">
+      <c r="D30" s="41" t="str">
         <f>rearing!F30</f>
         <v>South Africa</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="42"/>
-    </row>
-    <row r="31" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="str">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="41"/>
+    </row>
+    <row r="31" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="str">
         <f>rearing!A31</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B31" s="42" t="str">
+      <c r="B31" s="41" t="str">
         <f>rearing!D31</f>
         <v>Wegevallen Experimental Facility</v>
       </c>
-      <c r="C31" s="42" t="str">
+      <c r="C31" s="41" t="str">
         <f>rearing!E31</f>
         <v>Stellenbosch</v>
       </c>
-      <c r="D31" s="42" t="str">
+      <c r="D31" s="41" t="str">
         <f>rearing!F31</f>
         <v>South Africa</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="42"/>
-    </row>
-    <row r="32" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="str">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="41"/>
+    </row>
+    <row r="32" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="str">
         <f>rearing!A32</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="41" t="str">
         <f>rearing!D32</f>
         <v>Wegevallen Experimental Facility</v>
       </c>
-      <c r="C32" s="42" t="str">
+      <c r="C32" s="41" t="str">
         <f>rearing!E32</f>
         <v>Stellenbosch</v>
       </c>
-      <c r="D32" s="42" t="str">
+      <c r="D32" s="41" t="str">
         <f>rearing!F32</f>
         <v>South Africa</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="42"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="41"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -63936,10 +64047,10 @@
         <f>rearing!F33</f>
         <v>Belgium</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H33" s="15">
@@ -64017,10 +64128,10 @@
         <f>rearing!F34</f>
         <v>Belgium</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H34" s="15">
@@ -64098,10 +64209,10 @@
         <f>rearing!F35</f>
         <v>Belgium</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H35" s="15">
@@ -64179,10 +64290,10 @@
         <f>rearing!F36</f>
         <v>Belgium</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H36" s="15">
@@ -64260,10 +64371,10 @@
         <f>rearing!F37</f>
         <v>Belgium</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H37" s="15">
@@ -64341,10 +64452,10 @@
         <f>rearing!F38</f>
         <v>Belgium</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H38" s="15">
@@ -64521,10 +64632,10 @@
         <f>rearing!F44</f>
         <v>Belgium</v>
       </c>
-      <c r="E44" s="75" t="s">
+      <c r="E44" s="74" t="s">
         <v>396</v>
       </c>
-      <c r="F44" s="75" t="s">
+      <c r="F44" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H44" s="15">
@@ -64602,10 +64713,10 @@
         <f>rearing!F45</f>
         <v>Belgium</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="74" t="s">
         <v>396</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="74" t="s">
         <v>322</v>
       </c>
       <c r="H45" s="15">
@@ -65719,16 +65830,16 @@
         <f>31.71/0.33</f>
         <v>96.090909090909093</v>
       </c>
-      <c r="S65" s="71">
+      <c r="S65" s="70">
         <v>29</v>
       </c>
-      <c r="T65" s="71">
+      <c r="T65" s="70">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="U65" s="71">
+      <c r="U65" s="70">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="V65" s="71">
+      <c r="V65" s="70">
         <v>1.4E-2</v>
       </c>
       <c r="Y65" s="15">
@@ -66991,10 +67102,10 @@
     <col min="5" max="5" width="17.1640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="34"/>
+    <col min="8" max="8" width="10.83203125" style="33"/>
     <col min="9" max="12" width="10.83203125" style="10"/>
-    <col min="13" max="13" width="10.83203125" style="32"/>
-    <col min="14" max="15" width="10.83203125" style="61"/>
+    <col min="13" max="13" width="10.83203125" style="31"/>
+    <col min="14" max="15" width="10.83203125" style="60"/>
     <col min="16" max="16" width="10.83203125" style="17"/>
     <col min="17" max="19" width="10.83203125" style="7"/>
     <col min="20" max="20" width="10.83203125" style="13"/>
@@ -67007,38 +67118,38 @@
   <sheetData>
     <row r="1" spans="1:39" ht="24" x14ac:dyDescent="0.3">
       <c r="F1" s="7"/>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97" t="s">
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97" t="s">
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
     </row>
     <row r="2" spans="1:39" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -67061,7 +67172,7 @@
       <c r="F2" s="22" t="s">
         <v>572</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>573</v>
       </c>
       <c r="H2" s="24" t="s">
@@ -67082,10 +67193,10 @@
       <c r="M2" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="58" t="s">
         <v>580</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="58" t="s">
         <v>581</v>
       </c>
       <c r="P2" s="24" t="s">
@@ -67136,28 +67247,28 @@
       <c r="AE2" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="AF2" s="93" t="s">
+      <c r="AF2" s="92" t="s">
         <v>420</v>
       </c>
-      <c r="AG2" s="93" t="s">
+      <c r="AG2" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="AH2" s="93" t="s">
+      <c r="AH2" s="92" t="s">
         <v>421</v>
       </c>
-      <c r="AI2" s="93" t="s">
+      <c r="AI2" s="92" t="s">
         <v>422</v>
       </c>
-      <c r="AJ2" s="93" t="s">
+      <c r="AJ2" s="92" t="s">
         <v>423</v>
       </c>
-      <c r="AK2" s="93" t="s">
+      <c r="AK2" s="92" t="s">
         <v>424</v>
       </c>
-      <c r="AL2" s="93" t="s">
+      <c r="AL2" s="92" t="s">
         <v>425</v>
       </c>
-      <c r="AM2" s="93" t="s">
+      <c r="AM2" s="92" t="s">
         <v>426</v>
       </c>
     </row>
@@ -67178,33 +67289,33 @@
         <v>18</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <f>rearing!O3*feedIN!F3</f>
         <v>2.5295999999999998</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="35">
         <v>1</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>0.37</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <v>0.1</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <v>0.38500000000000001</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="29">
         <v>0.06</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="34">
         <v>0.03</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="20">
         <v>1.2</v>
       </c>
@@ -67243,11 +67354,11 @@
       <c r="F4" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <f>rearing!O4*feedIN!F4</f>
         <v>2.5295999999999998</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>1</v>
       </c>
       <c r="I4" s="10">
@@ -67262,7 +67373,7 @@
       <c r="L4" s="10">
         <v>0.06</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="31">
         <v>0.03</v>
       </c>
       <c r="P4" s="17">
@@ -67282,7 +67393,7 @@
         <f>rearing!C5</f>
         <v>AER</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="str">
@@ -67303,8 +67414,8 @@
       <c r="E6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="34">
+      <c r="G6" s="38"/>
+      <c r="H6" s="33">
         <v>1</v>
       </c>
       <c r="I6" s="10">
@@ -67320,7 +67431,7 @@
       <c r="L6" s="10">
         <v>0.08</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -67343,8 +67454,8 @@
       <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="34">
+      <c r="G7" s="38"/>
+      <c r="H7" s="33">
         <v>1</v>
       </c>
       <c r="I7" s="10">
@@ -67360,7 +67471,7 @@
       <c r="L7" s="10">
         <v>0.08</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="31">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -67383,8 +67494,8 @@
       <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="34">
+      <c r="G8" s="38"/>
+      <c r="H8" s="33">
         <v>1</v>
       </c>
       <c r="I8" s="10">
@@ -67393,7 +67504,7 @@
       <c r="J8" s="10">
         <v>0.12</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="31">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -67416,8 +67527,8 @@
       <c r="F9" s="10">
         <v>0.05</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="34">
+      <c r="G9" s="38"/>
+      <c r="H9" s="33">
         <v>0.91700000000000004</v>
       </c>
       <c r="I9" s="10">
@@ -67473,8 +67584,8 @@
       <c r="F10" s="10">
         <v>0.05</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="34">
+      <c r="G10" s="38"/>
+      <c r="H10" s="33">
         <v>0.91700000000000004</v>
       </c>
       <c r="I10" s="10">
@@ -67530,8 +67641,8 @@
       <c r="F11" s="10">
         <v>0.05</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="34">
+      <c r="G11" s="38"/>
+      <c r="H11" s="33">
         <v>0.91700000000000004</v>
       </c>
       <c r="I11" s="10">
@@ -67587,8 +67698,8 @@
       <c r="F12" s="10">
         <v>0.05</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="34">
+      <c r="G12" s="38"/>
+      <c r="H12" s="33">
         <v>0.91700000000000004</v>
       </c>
       <c r="I12" s="10">
@@ -67644,11 +67755,11 @@
       <c r="F13" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <f>509/49/1000</f>
         <v>1.0387755102040817E-2</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="33">
         <v>0.91900000000000004</v>
       </c>
       <c r="I13" s="10">
@@ -67663,7 +67774,7 @@
       <c r="L13" s="10">
         <v>0.11650000000000001</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="P13" s="17">
@@ -67719,11 +67830,11 @@
       <c r="F14" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <f>509/49/1000</f>
         <v>1.0387755102040817E-2</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <v>0.92300000000000004</v>
       </c>
       <c r="I14" s="10">
@@ -67738,7 +67849,7 @@
       <c r="L14" s="10">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="31">
         <v>8.0500000000000002E-2</v>
       </c>
       <c r="P14" s="17">
@@ -67794,11 +67905,11 @@
       <c r="F15" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="39">
         <f>509/49/1000</f>
         <v>1.0387755102040817E-2</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <v>0.91600000000000004</v>
       </c>
       <c r="I15" s="10">
@@ -67813,7 +67924,7 @@
       <c r="L15" s="10">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="31">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="P15" s="17">
@@ -67869,11 +67980,11 @@
       <c r="F16" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <f>509/49/1000</f>
         <v>1.0387755102040817E-2</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="33">
         <v>0.93049999999999999</v>
       </c>
       <c r="I16" s="10">
@@ -67888,7 +67999,7 @@
       <c r="L16" s="10">
         <v>0.1085</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="31">
         <v>3.1E-2</v>
       </c>
       <c r="P16" s="17">
@@ -68027,14 +68138,14 @@
       <c r="D21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="91">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G21" s="13">
         <f>325.6/154</f>
         <v>2.1142857142857143</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>1</v>
       </c>
       <c r="I21" s="10">
@@ -68049,7 +68160,7 @@
       <c r="L21" s="10">
         <v>0.06</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="31">
         <v>0.03</v>
       </c>
       <c r="P21" s="17">
@@ -68072,14 +68183,14 @@
       <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="92">
+      <c r="F22" s="91">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G22" s="13">
         <f>325.6/154</f>
         <v>2.1142857142857143</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <v>1</v>
       </c>
       <c r="I22" s="10">
@@ -68094,7 +68205,7 @@
       <c r="L22" s="10">
         <v>0.06</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="31">
         <v>0.03</v>
       </c>
       <c r="P22" s="17">
@@ -68117,14 +68228,14 @@
       <c r="D23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="91">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G23" s="13">
         <f>325.6/154</f>
         <v>2.1142857142857143</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <v>1</v>
       </c>
       <c r="I23" s="10">
@@ -68139,7 +68250,7 @@
       <c r="L23" s="10">
         <v>0.06</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="31">
         <v>0.03</v>
       </c>
       <c r="P23" s="17">
@@ -68171,7 +68282,7 @@
       <c r="G24" s="13">
         <v>1.3</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="33">
         <v>0.88</v>
       </c>
       <c r="I24" s="10">
@@ -68187,7 +68298,7 @@
       <c r="L24" s="10">
         <v>0.08</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="31">
         <v>0.04</v>
       </c>
       <c r="P24" s="17">
@@ -68255,7 +68366,7 @@
       <c r="G25" s="13">
         <v>1.3</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="33">
         <v>0.88</v>
       </c>
       <c r="I25" s="10">
@@ -68271,7 +68382,7 @@
       <c r="L25" s="10">
         <v>0.08</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>0.04</v>
       </c>
       <c r="P25" s="17">
@@ -68314,411 +68425,411 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="str">
+    <row r="26" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="str">
         <f>rearing!A26</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B26" s="42" t="str">
+      <c r="B26" s="41" t="str">
         <f>rearing!B26</f>
         <v>African catfish</v>
       </c>
-      <c r="C26" s="42" t="str">
+      <c r="C26" s="41" t="str">
         <f>rearing!C26</f>
         <v>FeSO4-20</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="46">
+      <c r="F26" s="44"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="45">
         <v>0.94499999999999995</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="44">
         <v>0.37</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="44">
         <v>0.114</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="44">
         <v>0.36699999999999999</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="44">
         <v>9.4E-2</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="46">
         <v>2.4E-2</v>
       </c>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-    </row>
-    <row r="27" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="str">
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+    </row>
+    <row r="27" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="str">
         <f>rearing!A27</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B27" s="49" t="str">
+      <c r="B27" s="48" t="str">
         <f>rearing!B27</f>
         <v>African catfish</v>
       </c>
-      <c r="C27" s="49" t="str">
+      <c r="C27" s="48" t="str">
         <f>rearing!C27</f>
         <v>FeSO4-30</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="46">
+      <c r="F27" s="44"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="45">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="44">
         <v>0.37</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="44">
         <v>0.112</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="44">
         <v>0.37</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="44">
         <v>0.1</v>
       </c>
-      <c r="M27" s="47">
+      <c r="M27" s="46">
         <v>2.3E-2</v>
       </c>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-    </row>
-    <row r="28" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="str">
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+    </row>
+    <row r="28" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="str">
         <f>rearing!A28</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B28" s="42" t="str">
+      <c r="B28" s="41" t="str">
         <f>rearing!B28</f>
         <v>African catfish</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="41" t="str">
         <f>rearing!C28</f>
         <v>FeSO4-60</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="46">
+      <c r="F28" s="44"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="45">
         <v>0.95399999999999996</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="44">
         <v>0.38</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="44">
         <v>0.112</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="44">
         <v>0.36899999999999999</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="44">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="46">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-    </row>
-    <row r="29" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="str">
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+    </row>
+    <row r="29" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="str">
         <f>rearing!A29</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B29" s="42" t="str">
+      <c r="B29" s="41" t="str">
         <f>rearing!B29</f>
         <v>African catfish</v>
       </c>
-      <c r="C29" s="42" t="str">
+      <c r="C29" s="41" t="str">
         <f>rearing!C29</f>
         <v>FeAA-5</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="46">
+      <c r="F29" s="44"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="45">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="44">
         <v>0.37</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="44">
         <v>0.11</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="44">
         <v>0.372</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="44">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-    </row>
-    <row r="30" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="str">
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+    </row>
+    <row r="30" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="48" t="str">
         <f>rearing!A30</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B30" s="49" t="str">
+      <c r="B30" s="48" t="str">
         <f>rearing!B30</f>
         <v>African catfish</v>
       </c>
-      <c r="C30" s="49" t="str">
+      <c r="C30" s="48" t="str">
         <f>rearing!C30</f>
         <v>FeAA-10</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="46">
+      <c r="F30" s="44"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="45">
         <v>0.92</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="44">
         <v>0.37</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="44">
         <v>0.107</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="44">
         <v>0.34799999999999998</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="44">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="46">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-    </row>
-    <row r="31" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="str">
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+    </row>
+    <row r="31" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="str">
         <f>rearing!A31</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B31" s="42" t="str">
+      <c r="B31" s="41" t="str">
         <f>rearing!B31</f>
         <v>African catfish</v>
       </c>
-      <c r="C31" s="42" t="str">
+      <c r="C31" s="41" t="str">
         <f>rearing!C31</f>
         <v>FeAA-20</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="46">
+      <c r="F31" s="44"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="45">
         <v>0.92</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="44">
         <v>0.37</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="44">
         <v>0.109</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="44">
         <v>0.35</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="44">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="46">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
-    </row>
-    <row r="32" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="str">
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+    </row>
+    <row r="32" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="str">
         <f>rearing!A32</f>
         <v>Siqwepu2020</v>
       </c>
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="41" t="str">
         <f>rearing!B32</f>
         <v>African catfish</v>
       </c>
-      <c r="C32" s="42" t="str">
+      <c r="C32" s="41" t="str">
         <f>rearing!C32</f>
         <v>Control</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="46">
+      <c r="F32" s="44"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="45">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="44">
         <v>0.38</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="44">
         <v>0.10299999999999999</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="44">
         <v>0.36499999999999999</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="44">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="46">
         <v>2.3E-2</v>
       </c>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="str">
@@ -68745,7 +68856,7 @@
       <c r="J33" s="10">
         <v>0.16</v>
       </c>
-      <c r="AM33" s="41"/>
+      <c r="AM33" s="40"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
@@ -68772,7 +68883,7 @@
       <c r="J34" s="10">
         <v>0.16</v>
       </c>
-      <c r="AM34" s="41"/>
+      <c r="AM34" s="40"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
@@ -68799,7 +68910,7 @@
       <c r="J35" s="10">
         <v>0.16</v>
       </c>
-      <c r="AM35" s="41"/>
+      <c r="AM35" s="40"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="str">
@@ -68826,7 +68937,7 @@
       <c r="J36" s="10">
         <v>0.16</v>
       </c>
-      <c r="AM36" s="41"/>
+      <c r="AM36" s="40"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
@@ -68853,7 +68964,7 @@
       <c r="J37" s="10">
         <v>0.16</v>
       </c>
-      <c r="AM37" s="41"/>
+      <c r="AM37" s="40"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
@@ -68880,7 +68991,7 @@
       <c r="J38" s="10">
         <v>0.16</v>
       </c>
-      <c r="AM38" s="41"/>
+      <c r="AM38" s="40"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="str">
@@ -68946,7 +69057,7 @@
       <c r="F42" s="10">
         <v>0.02</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="33">
         <v>0.9</v>
       </c>
       <c r="I42" s="10">
@@ -68962,13 +69073,13 @@
       <c r="L42" s="10">
         <v>0.1</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="31">
         <v>0.04</v>
       </c>
-      <c r="N42" s="61">
+      <c r="N42" s="60">
         <v>19.399999999999999</v>
       </c>
-      <c r="O42" s="61">
+      <c r="O42" s="60">
         <v>16.3</v>
       </c>
       <c r="P42" s="17">
@@ -68997,7 +69108,7 @@
       <c r="F43" s="10">
         <v>0.02</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="33">
         <v>0.9</v>
       </c>
       <c r="I43" s="10">
@@ -69013,13 +69124,13 @@
       <c r="L43" s="10">
         <v>0.1</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="31">
         <v>0.04</v>
       </c>
-      <c r="N43" s="61">
+      <c r="N43" s="60">
         <v>19.399999999999999</v>
       </c>
-      <c r="O43" s="61">
+      <c r="O43" s="60">
         <v>16.3</v>
       </c>
       <c r="P43" s="17">
@@ -69097,7 +69208,7 @@
       <c r="F46" s="16">
         <v>9.7599999999999996E-3</v>
       </c>
-      <c r="G46" s="69">
+      <c r="G46" s="68">
         <f>F46*rearing!O46</f>
         <v>0.67163815384615377</v>
       </c>
@@ -69110,7 +69221,7 @@
       <c r="L46" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M46" s="32">
+      <c r="M46" s="31">
         <v>1.4E-2</v>
       </c>
       <c r="P46" s="17">
@@ -69154,7 +69265,7 @@
       <c r="F47" s="16">
         <v>9.7599999999999996E-3</v>
       </c>
-      <c r="G47" s="69">
+      <c r="G47" s="68">
         <f>F47*rearing!O47</f>
         <v>0.67163815384615377</v>
       </c>
@@ -69167,7 +69278,7 @@
       <c r="L47" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M47" s="32">
+      <c r="M47" s="31">
         <v>1.4E-2</v>
       </c>
       <c r="P47" s="17">
@@ -69211,7 +69322,7 @@
       <c r="F48" s="16">
         <v>9.7599999999999996E-3</v>
       </c>
-      <c r="G48" s="69">
+      <c r="G48" s="68">
         <f>F48*rearing!O48</f>
         <v>0.67163815384615377</v>
       </c>
@@ -69224,7 +69335,7 @@
       <c r="L48" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M48" s="32">
+      <c r="M48" s="31">
         <v>1.4E-2</v>
       </c>
       <c r="P48" s="17">
@@ -69265,7 +69376,7 @@
       <c r="F49" s="16">
         <v>1.55E-2</v>
       </c>
-      <c r="G49" s="69">
+      <c r="G49" s="68">
         <f>F49*rearing!O49</f>
         <v>2.31012</v>
       </c>
@@ -69286,7 +69397,7 @@
       <c r="F50" s="16">
         <v>1.55E-2</v>
       </c>
-      <c r="G50" s="69">
+      <c r="G50" s="68">
         <f>F50*rearing!O50</f>
         <v>2.31012</v>
       </c>
@@ -69310,7 +69421,7 @@
       <c r="F51" s="16">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="H51" s="34">
+      <c r="H51" s="33">
         <v>0.88</v>
       </c>
       <c r="I51" s="10">
@@ -69342,7 +69453,7 @@
       <c r="F52" s="16">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="H52" s="34">
+      <c r="H52" s="33">
         <v>0.92</v>
       </c>
       <c r="I52" s="10">
@@ -69425,7 +69536,7 @@
       <c r="L56" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M56" s="32">
+      <c r="M56" s="31">
         <v>1.4E-2</v>
       </c>
       <c r="P56" s="17">
@@ -69478,7 +69589,7 @@
       <c r="L57" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M57" s="32">
+      <c r="M57" s="31">
         <v>1.4E-2</v>
       </c>
       <c r="P57" s="17">
@@ -69531,7 +69642,7 @@
       <c r="L58" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M58" s="32">
+      <c r="M58" s="31">
         <v>1.4E-2</v>
       </c>
       <c r="P58" s="17">
@@ -69585,13 +69696,13 @@
       <c r="L59" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="M59" s="32">
+      <c r="M59" s="31">
         <v>1.6E-2</v>
       </c>
-      <c r="N59" s="61">
+      <c r="N59" s="60">
         <v>20.100000000000001</v>
       </c>
-      <c r="O59" s="61">
+      <c r="O59" s="60">
         <v>17.5</v>
       </c>
       <c r="P59" s="17">
@@ -69627,13 +69738,13 @@
       <c r="L60" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="M60" s="32">
+      <c r="M60" s="31">
         <v>1.6E-2</v>
       </c>
-      <c r="N60" s="61">
+      <c r="N60" s="60">
         <v>20.100000000000001</v>
       </c>
-      <c r="O60" s="61">
+      <c r="O60" s="60">
         <v>17.5</v>
       </c>
       <c r="P60" s="17">
@@ -69669,13 +69780,13 @@
       <c r="L61" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="M61" s="32">
+      <c r="M61" s="31">
         <v>1.6E-2</v>
       </c>
-      <c r="N61" s="61">
+      <c r="N61" s="60">
         <v>20.100000000000001</v>
       </c>
-      <c r="O61" s="61">
+      <c r="O61" s="60">
         <v>17.5</v>
       </c>
       <c r="P61" s="17">
@@ -69711,13 +69822,13 @@
       <c r="L62" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="M62" s="32">
+      <c r="M62" s="31">
         <v>1.6E-2</v>
       </c>
-      <c r="N62" s="61">
+      <c r="N62" s="60">
         <v>20.100000000000001</v>
       </c>
-      <c r="O62" s="61">
+      <c r="O62" s="60">
         <v>17.5</v>
       </c>
       <c r="P62" s="17">
@@ -69753,13 +69864,13 @@
       <c r="L63" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="M63" s="32">
+      <c r="M63" s="31">
         <v>1.6E-2</v>
       </c>
-      <c r="N63" s="61">
+      <c r="N63" s="60">
         <v>20.100000000000001</v>
       </c>
-      <c r="O63" s="61">
+      <c r="O63" s="60">
         <v>17.5</v>
       </c>
       <c r="P63" s="17">
@@ -69795,13 +69906,13 @@
       <c r="L64" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="M64" s="32">
+      <c r="M64" s="31">
         <v>1.6E-2</v>
       </c>
-      <c r="N64" s="61">
+      <c r="N64" s="60">
         <v>20.100000000000001</v>
       </c>
-      <c r="O64" s="61">
+      <c r="O64" s="60">
         <v>17.5</v>
       </c>
       <c r="P64" s="17">
@@ -69830,11 +69941,11 @@
       <c r="F65" s="16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G65" s="69">
+      <c r="G65" s="68">
         <f>F65*rearing!O65</f>
         <v>0.26604000000000005</v>
       </c>
-      <c r="H65" s="34">
+      <c r="H65" s="33">
         <v>1</v>
       </c>
       <c r="I65" s="10">
@@ -69843,7 +69954,7 @@
       <c r="J65" s="10">
         <v>0.12</v>
       </c>
-      <c r="M65" s="32">
+      <c r="M65" s="31">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="P65" s="17">
@@ -69902,11 +70013,11 @@
       <c r="F66" s="16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G66" s="69">
+      <c r="G66" s="68">
         <f>F66*rearing!O66</f>
         <v>0.26604000000000005</v>
       </c>
-      <c r="H66" s="34">
+      <c r="H66" s="33">
         <v>1</v>
       </c>
       <c r="I66" s="10">
@@ -69915,7 +70026,7 @@
       <c r="J66" s="10">
         <v>0.12</v>
       </c>
-      <c r="M66" s="32">
+      <c r="M66" s="31">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="P66" s="17">
@@ -69968,7 +70079,7 @@
       <c r="F67" s="10">
         <v>0.02</v>
       </c>
-      <c r="G67" s="76">
+      <c r="G67" s="75">
         <f>F67*rearing!O67</f>
         <v>7.8015999999999996</v>
       </c>
@@ -69995,7 +70106,7 @@
       <c r="F68" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G68" s="76">
+      <c r="G68" s="75">
         <f>F68*rearing!O68</f>
         <v>202.995</v>
       </c>
@@ -70022,7 +70133,7 @@
       <c r="F69" s="10">
         <v>0.03</v>
       </c>
-      <c r="G69" s="76">
+      <c r="G69" s="75">
         <f>F69*rearing!O69</f>
         <v>3599.8199999999993</v>
       </c>
@@ -70052,7 +70163,7 @@
       <c r="F70" s="10">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="H70" s="34">
+      <c r="H70" s="33">
         <v>1</v>
       </c>
       <c r="I70" s="10">
@@ -70067,7 +70178,7 @@
       <c r="L70" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M70" s="32">
+      <c r="M70" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P70" s="17">
@@ -70093,7 +70204,7 @@
       <c r="F71" s="10">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="H71" s="34">
+      <c r="H71" s="33">
         <v>1</v>
       </c>
       <c r="I71" s="10">
@@ -70108,7 +70219,7 @@
       <c r="L71" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M71" s="32">
+      <c r="M71" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P71" s="17">
@@ -70134,7 +70245,7 @@
       <c r="F72" s="10">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="H72" s="34">
+      <c r="H72" s="33">
         <v>1</v>
       </c>
       <c r="I72" s="10">
@@ -70149,7 +70260,7 @@
       <c r="L72" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M72" s="32">
+      <c r="M72" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P72" s="17">
@@ -70175,7 +70286,7 @@
       <c r="F73" s="10">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="H73" s="34">
+      <c r="H73" s="33">
         <v>1</v>
       </c>
       <c r="I73" s="10">
@@ -70190,7 +70301,7 @@
       <c r="L73" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M73" s="32">
+      <c r="M73" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P73" s="17">
@@ -70216,7 +70327,7 @@
       <c r="F74" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="H74" s="80">
+      <c r="H74" s="79">
         <v>1</v>
       </c>
       <c r="I74" s="10">
@@ -70231,7 +70342,7 @@
       <c r="L74" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M74" s="32">
+      <c r="M74" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P74" s="17">
@@ -70257,7 +70368,7 @@
       <c r="F75" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="H75" s="80">
+      <c r="H75" s="79">
         <v>1</v>
       </c>
       <c r="I75" s="10">
@@ -70272,7 +70383,7 @@
       <c r="L75" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M75" s="32">
+      <c r="M75" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P75" s="17">
@@ -70310,10 +70421,10 @@
       <c r="L76" s="10">
         <v>0.06</v>
       </c>
-      <c r="M76" s="32">
+      <c r="M76" s="31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O76" s="61">
+      <c r="O76" s="60">
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -70348,10 +70459,10 @@
       <c r="L77" s="10">
         <v>0.06</v>
       </c>
-      <c r="M77" s="32">
+      <c r="M77" s="31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O77" s="61">
+      <c r="O77" s="60">
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -70386,10 +70497,10 @@
       <c r="L78" s="10">
         <v>0.06</v>
       </c>
-      <c r="M78" s="32">
+      <c r="M78" s="31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O78" s="61">
+      <c r="O78" s="60">
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -70412,7 +70523,7 @@
       <c r="G79" s="13">
         <v>0.1</v>
       </c>
-      <c r="H79" s="34">
+      <c r="H79" s="33">
         <v>0.9</v>
       </c>
       <c r="I79" s="10">
@@ -70421,7 +70532,7 @@
       <c r="J79" s="10">
         <v>0.08</v>
       </c>
-      <c r="M79" s="32">
+      <c r="M79" s="31">
         <v>0.04</v>
       </c>
       <c r="P79" s="17">
@@ -70510,7 +70621,7 @@
       <c r="G80" s="13">
         <v>0.1</v>
       </c>
-      <c r="H80" s="34">
+      <c r="H80" s="33">
         <v>0.9</v>
       </c>
       <c r="I80" s="10">
@@ -70519,7 +70630,7 @@
       <c r="J80" s="10">
         <v>0.08</v>
       </c>
-      <c r="M80" s="32">
+      <c r="M80" s="31">
         <v>0.04</v>
       </c>
       <c r="P80" s="17">
@@ -70608,7 +70719,7 @@
       <c r="G81" s="13">
         <v>0.1</v>
       </c>
-      <c r="H81" s="34">
+      <c r="H81" s="33">
         <v>0.9</v>
       </c>
       <c r="I81" s="10">
@@ -70617,7 +70728,7 @@
       <c r="J81" s="10">
         <v>0.08</v>
       </c>
-      <c r="M81" s="32">
+      <c r="M81" s="31">
         <v>0.04</v>
       </c>
       <c r="P81" s="17">
@@ -70712,7 +70823,7 @@
       <c r="J82" s="10">
         <v>0.16</v>
       </c>
-      <c r="M82" s="32">
+      <c r="M82" s="31">
         <v>0.03</v>
       </c>
       <c r="P82" s="17">
@@ -70882,33 +70993,33 @@
         <v>18</v>
       </c>
       <c r="E93" s="18"/>
-      <c r="F93" s="30">
+      <c r="F93" s="29">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G93" s="38">
+      <c r="G93" s="37">
         <f>rearing!O93*feedIN!F93</f>
         <v>2.5295999999999998</v>
       </c>
-      <c r="H93" s="36">
+      <c r="H93" s="35">
         <v>1</v>
       </c>
-      <c r="I93" s="30">
+      <c r="I93" s="29">
         <v>0.37</v>
       </c>
-      <c r="J93" s="30">
+      <c r="J93" s="29">
         <v>0.1</v>
       </c>
-      <c r="K93" s="30">
+      <c r="K93" s="29">
         <v>0.38500000000000001</v>
       </c>
-      <c r="L93" s="30">
+      <c r="L93" s="29">
         <v>0.06</v>
       </c>
-      <c r="M93" s="35">
+      <c r="M93" s="34">
         <v>0.03</v>
       </c>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
+      <c r="N93" s="59"/>
+      <c r="O93" s="59"/>
       <c r="P93" s="20">
         <v>1.2</v>
       </c>
@@ -70929,7 +71040,7 @@
       <c r="D94" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H94" s="34">
+      <c r="H94" s="33">
         <v>0.89</v>
       </c>
       <c r="I94" s="10">
@@ -70945,7 +71056,7 @@
       <c r="L94" s="10">
         <v>0.13</v>
       </c>
-      <c r="M94" s="32">
+      <c r="M94" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P94" s="17">
@@ -70968,7 +71079,7 @@
       <c r="D95" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H95" s="34">
+      <c r="H95" s="33">
         <v>0.89</v>
       </c>
       <c r="I95" s="10">
@@ -70984,7 +71095,7 @@
       <c r="L95" s="10">
         <v>0.13</v>
       </c>
-      <c r="M95" s="32">
+      <c r="M95" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P95" s="17">
@@ -71007,7 +71118,7 @@
       <c r="D96" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H96" s="34">
+      <c r="H96" s="33">
         <v>0.89</v>
       </c>
       <c r="I96" s="10">
@@ -71023,7 +71134,7 @@
       <c r="L96" s="10">
         <v>0.13</v>
       </c>
-      <c r="M96" s="32">
+      <c r="M96" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P96" s="17">
@@ -71046,7 +71157,7 @@
       <c r="D97" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H97" s="34">
+      <c r="H97" s="33">
         <v>0.89</v>
       </c>
       <c r="I97" s="10">
@@ -71062,7 +71173,7 @@
       <c r="L97" s="10">
         <v>0.13</v>
       </c>
-      <c r="M97" s="32">
+      <c r="M97" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P97" s="17">
@@ -71085,7 +71196,7 @@
       <c r="D98" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H98" s="34">
+      <c r="H98" s="33">
         <v>0.89</v>
       </c>
       <c r="I98" s="10">
@@ -71101,7 +71212,7 @@
       <c r="L98" s="10">
         <v>0.13</v>
       </c>
-      <c r="M98" s="32">
+      <c r="M98" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P98" s="17">
@@ -71124,7 +71235,7 @@
       <c r="D99" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H99" s="34">
+      <c r="H99" s="33">
         <v>0.89</v>
       </c>
       <c r="I99" s="10">
@@ -71140,7 +71251,7 @@
       <c r="L99" s="10">
         <v>0.13</v>
       </c>
-      <c r="M99" s="32">
+      <c r="M99" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P99" s="17">
@@ -71172,7 +71283,7 @@
       <c r="J100" s="10">
         <v>0.12</v>
       </c>
-      <c r="M100" s="32">
+      <c r="M100" s="31">
         <v>0.04</v>
       </c>
       <c r="P100" s="17">
@@ -71222,7 +71333,7 @@
       <c r="J101" s="10">
         <v>0.12</v>
       </c>
-      <c r="M101" s="32">
+      <c r="M101" s="31">
         <v>0.04</v>
       </c>
       <c r="P101" s="17">
@@ -71272,7 +71383,7 @@
       <c r="J102" s="10">
         <v>0.12</v>
       </c>
-      <c r="M102" s="32">
+      <c r="M102" s="31">
         <v>0.04</v>
       </c>
       <c r="P102" s="17">
@@ -71386,7 +71497,7 @@
       <c r="G108" s="13">
         <v>0.08</v>
       </c>
-      <c r="H108" s="34">
+      <c r="H108" s="33">
         <v>0.9</v>
       </c>
       <c r="I108" s="10">
@@ -71395,7 +71506,7 @@
       <c r="J108" s="10">
         <v>0.08</v>
       </c>
-      <c r="M108" s="32">
+      <c r="M108" s="31">
         <v>0.04</v>
       </c>
       <c r="P108" s="17">
@@ -71487,7 +71598,7 @@
       <c r="J109" s="10">
         <v>0.06</v>
       </c>
-      <c r="M109" s="32">
+      <c r="M109" s="31">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="P109" s="17">
@@ -71571,7 +71682,7 @@
       <c r="L113" s="10">
         <v>0.06</v>
       </c>
-      <c r="M113" s="32">
+      <c r="M113" s="31">
         <v>3.9E-2</v>
       </c>
       <c r="P113" s="17">
@@ -71622,7 +71733,7 @@
       <c r="L114" s="10">
         <v>0.06</v>
       </c>
-      <c r="M114" s="32">
+      <c r="M114" s="31">
         <v>3.9E-2</v>
       </c>
       <c r="P114" s="17">
@@ -71673,7 +71784,7 @@
       <c r="L115" s="10">
         <v>0.06</v>
       </c>
-      <c r="M115" s="32">
+      <c r="M115" s="31">
         <v>3.9E-2</v>
       </c>
       <c r="P115" s="17">
@@ -71724,7 +71835,7 @@
       <c r="L116" s="10">
         <v>0.06</v>
       </c>
-      <c r="M116" s="32">
+      <c r="M116" s="31">
         <v>3.9E-2</v>
       </c>
       <c r="P116" s="17">

--- a/data/solubility/Aquaponics - Masterfile Nutrients.xlsx
+++ b/data/solubility/Aquaponics - Masterfile Nutrients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/Projekt18 - PhD-Aquaponics/data/solubility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EEDD6B-918F-7946-B643-C02BD6DCBB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB1D3F5-9C86-5946-BC93-1A4355254541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="956" firstSheet="7" activeTab="16" xr2:uid="{5855CA20-A45B-EF4D-A216-6F07AE6CF6F3}"/>
   </bookViews>
@@ -36792,10 +36792,10 @@
   <dimension ref="A1:Y116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57506,13 +57506,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:U116"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58568,7 +58568,7 @@
         <v>4</v>
       </c>
       <c r="N23" s="101">
-        <f t="shared" si="3"/>
+        <f>O23/(G23/1000)</f>
         <v>982.35294117647049</v>
       </c>
       <c r="O23" s="100">
@@ -59632,7 +59632,7 @@
         <v>15</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44:O45" si="10">M44*J44*I44</f>
+        <f>M44*J44*I44</f>
         <v>540</v>
       </c>
       <c r="Q44" s="7">
@@ -59674,7 +59674,7 @@
         <v>15</v>
       </c>
       <c r="O45" s="12">
-        <f t="shared" si="10"/>
+        <f>M45*J45*I45</f>
         <v>540</v>
       </c>
       <c r="Q45" s="7">
@@ -59719,7 +59719,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" ref="L46:L64" si="11">I46*J46+K46</f>
+        <f t="shared" ref="L46:L64" si="10">I46*J46+K46</f>
         <v>13</v>
       </c>
       <c r="M46" s="12">
@@ -59779,11 +59779,11 @@
         <v>4</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" ref="M47" si="12">N47*G47*0.001/L47</f>
+        <f t="shared" ref="M47" si="11">N47*G47*0.001/L47</f>
         <v>7.6461538461538465</v>
       </c>
       <c r="N47" s="7">
@@ -59839,7 +59839,7 @@
         <v>4</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M48" s="12">
@@ -59894,7 +59894,7 @@
         <v>4.04</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.24</v>
       </c>
       <c r="M49" s="7">
@@ -59946,7 +59946,7 @@
         <v>4.04</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.24</v>
       </c>
       <c r="M50" s="7">
@@ -60003,18 +60003,18 @@
         <v>0</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" ref="M51:M56" si="13">N51*G51*0.001/L51</f>
+        <f t="shared" ref="M51:M56" si="12">N51*G51*0.001/L51</f>
         <v>3.5893333333333333</v>
       </c>
       <c r="N51" s="7">
         <v>8</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" ref="O51:O66" si="14">N51*G51*0.001</f>
+        <f t="shared" ref="O51:O66" si="13">N51*G51*0.001</f>
         <v>0.53839999999999999</v>
       </c>
     </row>
@@ -60053,18 +60053,18 @@
         <v>0</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.5893333333333333</v>
       </c>
       <c r="N52" s="7">
         <v>8</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.53839999999999999</v>
       </c>
     </row>
@@ -60104,11 +60104,11 @@
         <v>1.42</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.12</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.9368932038834954</v>
       </c>
       <c r="N53" s="7">
@@ -60165,18 +60165,18 @@
         <v>1.42</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.12</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.9368932038834954</v>
       </c>
       <c r="N54" s="7">
         <v>300</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>20.34</v>
       </c>
       <c r="P54" s="7">
@@ -60226,18 +60226,18 @@
         <v>1.42</v>
       </c>
       <c r="L55" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.12</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.9368932038834954</v>
       </c>
       <c r="N55" s="7">
         <v>300</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>20.34</v>
       </c>
       <c r="P55" s="7">
@@ -60286,18 +60286,18 @@
         <v>4</v>
       </c>
       <c r="L56" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.4923076923076923</v>
       </c>
       <c r="N56" s="7">
         <v>140</v>
       </c>
       <c r="O56" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>71.400000000000006</v>
       </c>
     </row>
@@ -60336,7 +60336,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M57" s="12">
@@ -60347,7 +60347,7 @@
         <v>140</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>71.400000000000006</v>
       </c>
     </row>
@@ -60386,7 +60386,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M58" s="12">
@@ -60397,7 +60397,7 @@
         <v>140</v>
       </c>
       <c r="O58" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>71.400000000000006</v>
       </c>
     </row>
@@ -60436,18 +60436,18 @@
         <v>4</v>
       </c>
       <c r="L59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" ref="M59:M64" si="15">N59*G59*0.001/L59</f>
+        <f t="shared" ref="M59:M64" si="14">N59*G59*0.001/L59</f>
         <v>6.6089815384615385</v>
       </c>
       <c r="N59" s="7">
         <v>120</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>85.916759999999996</v>
       </c>
     </row>
@@ -60486,18 +60486,18 @@
         <v>4</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.6089815384615385</v>
       </c>
       <c r="N60" s="7">
         <v>120</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>85.916759999999996</v>
       </c>
     </row>
@@ -60536,18 +60536,18 @@
         <v>4</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.6089815384615385</v>
       </c>
       <c r="N61" s="7">
         <v>120</v>
       </c>
       <c r="O61" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>85.916759999999996</v>
       </c>
     </row>
@@ -60586,18 +60586,18 @@
         <v>4</v>
       </c>
       <c r="L62" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7.1274075384615383</v>
       </c>
       <c r="N62" s="7">
         <v>124.6</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>92.656297999999992</v>
       </c>
     </row>
@@ -60636,18 +60636,18 @@
         <v>4</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7.1274075384615383</v>
       </c>
       <c r="N63" s="7">
         <v>124.6</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="14"/>
+        <f>N63*G63*0.001</f>
         <v>92.656297999999992</v>
       </c>
     </row>
@@ -60686,18 +60686,18 @@
         <v>4</v>
       </c>
       <c r="L64" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7.1274075384615383</v>
       </c>
       <c r="N64" s="7">
         <v>124.6</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>92.656297999999992</v>
       </c>
     </row>
@@ -60746,7 +60746,7 @@
         <v>200</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>14.780000000000003</v>
       </c>
       <c r="P65" s="7">
@@ -60808,7 +60808,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>14.780000000000003</v>
       </c>
       <c r="P66" s="7">
@@ -60896,11 +60896,11 @@
         <v>62.46</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68" si="16">L68*M68</f>
+        <f t="shared" ref="O68" si="15">L68*M68</f>
         <v>8119.8</v>
       </c>
       <c r="P68" s="12">
-        <f t="shared" ref="P68:P69" si="17">L68*R68</f>
+        <f t="shared" ref="P68:P69" si="16">L68*R68</f>
         <v>2.145</v>
       </c>
       <c r="Q68" s="7">
@@ -61017,7 +61017,7 @@
         <v>2.9173</v>
       </c>
       <c r="P70" s="12">
-        <f t="shared" ref="P70:P73" si="18">L70*R70</f>
+        <f t="shared" ref="P70:P73" si="17">L70*R70</f>
         <v>5.6388000000000001E-2</v>
       </c>
       <c r="R70" s="10">
@@ -61065,7 +61065,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" ref="K71:K73" si="19">0.8+0.61</f>
+        <f t="shared" ref="K71:K73" si="18">0.8+0.61</f>
         <v>1.4100000000000001</v>
       </c>
       <c r="L71" s="7">
@@ -61081,7 +61081,7 @@
         <v>2.9173</v>
       </c>
       <c r="P71" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5.6388000000000001E-2</v>
       </c>
       <c r="R71" s="10">
@@ -61129,7 +61129,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="L72" s="7">
@@ -61145,7 +61145,7 @@
         <v>2.9346999999999999</v>
       </c>
       <c r="P72" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5.6388000000000001E-2</v>
       </c>
       <c r="R72" s="10">
@@ -61193,7 +61193,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="L73" s="7">
@@ -61209,7 +61209,7 @@
         <v>2.9346999999999999</v>
       </c>
       <c r="P73" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5.6388000000000001E-2</v>
       </c>
       <c r="R73" s="10">
@@ -61735,7 +61735,7 @@
         <v>170</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" ref="H94:H99" si="20">365/2</f>
+        <f t="shared" ref="H94:H99" si="19">365/2</f>
         <v>182.5</v>
       </c>
       <c r="I94" s="7">
@@ -61779,7 +61779,7 @@
         <v>170</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>182.5</v>
       </c>
       <c r="I95" s="7">
@@ -61792,14 +61792,14 @@
         <v>1.274</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" ref="M95:M96" si="21">O95/L95</f>
+        <f t="shared" ref="M95:M96" si="20">O95/L95</f>
         <v>2.6687598116169542</v>
       </c>
       <c r="N95" s="7">
         <v>20</v>
       </c>
       <c r="O95" s="12">
-        <f t="shared" ref="O95:O96" si="22">G95*N95/1000</f>
+        <f t="shared" ref="O95:O96" si="21">G95*N95/1000</f>
         <v>3.4</v>
       </c>
     </row>
@@ -61823,7 +61823,7 @@
         <v>170</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>182.5</v>
       </c>
       <c r="I96" s="7">
@@ -61836,14 +61836,14 @@
         <v>1.274</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2.0015698587127155</v>
       </c>
       <c r="N96" s="7">
         <v>15</v>
       </c>
       <c r="O96" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.5499999999999998</v>
       </c>
     </row>
@@ -61864,7 +61864,7 @@
         <v>387</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>182.5</v>
       </c>
       <c r="I97" s="7">
@@ -61898,7 +61898,7 @@
         <v>387</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>182.5</v>
       </c>
       <c r="I98" s="7">
@@ -61928,7 +61928,7 @@
         <v>387</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>182.5</v>
       </c>
       <c r="I99" s="7">
@@ -62300,7 +62300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>435</v>
       </c>
@@ -62325,8 +62325,12 @@
       <c r="N113" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113" s="7">
+        <f>G113*N113/1000</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>540</v>
       </c>
@@ -62351,8 +62355,12 @@
       <c r="N114" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114" s="7">
+        <f t="shared" ref="O114:O116" si="22">G114*N114/1000</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>541</v>
       </c>
@@ -62377,8 +62385,12 @@
       <c r="N115" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115" s="7">
+        <f t="shared" si="22"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>542</v>
       </c>
@@ -62402,6 +62414,16 @@
       </c>
       <c r="N116" s="7">
         <v>70</v>
+      </c>
+      <c r="O116" s="7">
+        <f t="shared" si="22"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O120" s="7">
+        <f>AVERAGE(O3:O116)</f>
+        <v>1778.8502678941068</v>
       </c>
     </row>
   </sheetData>
@@ -62524,7 +62546,7 @@
       </c>
       <c r="J2">
         <f>AVERAGE(rearing!O3:O196)</f>
-        <v>1876.1297346280305</v>
+        <v>1778.8502678941068</v>
       </c>
       <c r="K2">
         <f>AVERAGE(rearing!P3:P196)</f>

--- a/data/solubility/Aquaponics - Masterfile Nutrients.xlsx
+++ b/data/solubility/Aquaponics - Masterfile Nutrients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/Projekt18 - PhD-Aquaponics/data/solubility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Projekte/Projekt18 - PhD-Aquaponics/data/solubility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB1D3F5-9C86-5946-BC93-1A4355254541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD41A2B9-6646-F44A-90B0-485A9E3B47B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="956" firstSheet="7" activeTab="16" xr2:uid="{5855CA20-A45B-EF4D-A216-6F07AE6CF6F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="33600" tabRatio="956" firstSheet="1" activeTab="7" xr2:uid="{5855CA20-A45B-EF4D-A216-6F07AE6CF6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="important notes" sheetId="1" r:id="rId1"/>
@@ -13581,9 +13581,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>ec_µScm</t>
-  </si>
-  <si>
     <t>NH4_mgL</t>
   </si>
   <si>
@@ -13597,9 +13594,6 @@
   </si>
   <si>
     <t>SO4-S_mgL</t>
-  </si>
-  <si>
-    <t>Zn_µgL</t>
   </si>
   <si>
     <t>Cl_mgL</t>
@@ -13764,6 +13758,12 @@
   </si>
   <si>
     <t>Auburn</t>
+  </si>
+  <si>
+    <t>Zn_ugL</t>
+  </si>
+  <si>
+    <t>ec_uScm</t>
   </si>
 </sst>
 </file>
@@ -14224,7 +14224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14325,6 +14325,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14337,9 +14339,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14367,16 +14366,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -14392,6 +14381,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17194,7 +17193,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{713B421E-3016-4993-8813-5FAFECEBF423}" name="Table1" displayName="Table1" ref="A1:BE48" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{713B421E-3016-4993-8813-5FAFECEBF423}" name="Table1" displayName="Table1" ref="A1:BE48" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:BE48" xr:uid="{713B421E-3016-4993-8813-5FAFECEBF423}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BE47">
     <sortCondition ref="A1:A47"/>
@@ -17295,7 +17294,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17583,7 +17582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17648,12 +17647,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
@@ -17663,7 +17662,7 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
@@ -17730,7 +17729,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>feedIN!F2</f>
@@ -17871,7 +17870,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2">
         <f>COUNT(feedIN!F3:F196)</f>
@@ -18012,7 +18011,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B3" s="4">
         <f>MIN(feedIN!F3:F196)</f>
@@ -18153,7 +18152,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B4" s="4">
         <f>AVERAGE(feedIN!F3:F196)</f>
@@ -18435,7 +18434,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B6" s="4">
         <f>MAX(feedIN!F3:F196)</f>
@@ -18576,7 +18575,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E7">
         <f>1000*E3/6.25</f>
@@ -18585,7 +18584,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E8">
         <f>1000*E4/6.25</f>
@@ -18594,7 +18593,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E9">
         <f>1000*E5/6.25</f>
@@ -18603,7 +18602,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E10">
         <f>1000*E6/6.25</f>
@@ -18644,12 +18643,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:41" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="str">
@@ -22418,22 +22417,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" x14ac:dyDescent="0.3">
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
     </row>
     <row r="2" spans="1:29" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -35072,22 +35071,22 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96" t="s">
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
       <c r="AB1" s="7"/>
     </row>
     <row r="2" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -36791,8 +36790,8 @@
   </sheetPr>
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
@@ -36813,30 +36812,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96" t="s">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -37218,7 +37217,7 @@
         <f>rearing!C21</f>
         <v>RAS A</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="97">
         <f>324.6/rearing!N21*1000</f>
         <v>329.93721973094171</v>
       </c>
@@ -37236,7 +37235,7 @@
         <f>rearing!C22</f>
         <v>RAS C+Hydro C</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="97">
         <f>330.2/rearing!N22*1000</f>
         <v>336.1317365269461</v>
       </c>
@@ -37254,7 +37253,7 @@
         <f>rearing!C23</f>
         <v>RAS D/Hydro D</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="97">
         <f>323.7/rearing!N23*1000</f>
         <v>329.51497005988028</v>
       </c>
@@ -38876,27 +38875,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="24" x14ac:dyDescent="0.3">
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99" t="s">
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
     </row>
     <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -46356,7 +46355,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E236">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46794,7 +46793,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C6" s="64">
         <v>4</v>
@@ -48056,7 +48055,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -48064,13 +48063,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="O41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -48087,8 +48086,8 @@
   <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J120" sqref="J120"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F102:F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58012,7 +58011,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>160</v>
@@ -58080,7 +58079,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>160</v>
@@ -58148,7 +58147,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>160</v>
@@ -58216,7 +58215,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>160</v>
@@ -58445,11 +58444,11 @@
       <c r="M21" s="7">
         <v>4</v>
       </c>
-      <c r="N21" s="101">
+      <c r="N21" s="96">
         <f>O21/(G21/1000)</f>
         <v>983.82352941176475</v>
       </c>
-      <c r="O21" s="100">
+      <c r="O21" s="7">
         <v>66.900000000000006</v>
       </c>
       <c r="R21" s="10">
@@ -58506,11 +58505,11 @@
       <c r="M22" s="7">
         <v>4</v>
       </c>
-      <c r="N22" s="101">
-        <f t="shared" ref="N22:N23" si="3">O22/(G22/1000)</f>
+      <c r="N22" s="96">
+        <f t="shared" ref="N22" si="3">O22/(G22/1000)</f>
         <v>982.35294117647049</v>
       </c>
-      <c r="O22" s="100">
+      <c r="O22" s="7">
         <v>66.8</v>
       </c>
       <c r="R22" s="10">
@@ -58567,11 +58566,11 @@
       <c r="M23" s="7">
         <v>4</v>
       </c>
-      <c r="N23" s="101">
+      <c r="N23" s="96">
         <f>O23/(G23/1000)</f>
         <v>982.35294117647049</v>
       </c>
-      <c r="O23" s="100">
+      <c r="O23" s="7">
         <v>66.8</v>
       </c>
       <c r="R23" s="10">
@@ -60900,7 +60899,7 @@
         <v>8119.8</v>
       </c>
       <c r="P68" s="12">
-        <f t="shared" ref="P68:P69" si="16">L68*R68</f>
+        <f t="shared" ref="P68" si="16">L68*R68</f>
         <v>2.145</v>
       </c>
       <c r="Q68" s="7">
@@ -61007,7 +61006,7 @@
       <c r="L70" s="7">
         <v>3.81</v>
       </c>
-      <c r="M70" s="100">
+      <c r="M70" s="7">
         <v>1.6</v>
       </c>
       <c r="N70" s="7">
@@ -61071,7 +61070,7 @@
       <c r="L71" s="7">
         <v>3.81</v>
       </c>
-      <c r="M71" s="100">
+      <c r="M71" s="7">
         <v>1.6</v>
       </c>
       <c r="N71" s="7">
@@ -61135,7 +61134,7 @@
       <c r="L72" s="7">
         <v>3.81</v>
       </c>
-      <c r="M72" s="100">
+      <c r="M72" s="7">
         <v>1.6</v>
       </c>
       <c r="N72" s="7">
@@ -61199,7 +61198,7 @@
       <c r="L73" s="7">
         <v>3.81</v>
       </c>
-      <c r="M73" s="100">
+      <c r="M73" s="7">
         <v>1.6</v>
       </c>
       <c r="N73" s="7">
@@ -61525,7 +61524,7 @@
         <v>376</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -61539,7 +61538,7 @@
         <v>368</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -61553,7 +61552,7 @@
         <v>369</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -61567,7 +61566,7 @@
         <v>370</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
@@ -61581,7 +61580,7 @@
         <v>371</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -61595,7 +61594,7 @@
         <v>372</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
@@ -61609,7 +61608,7 @@
         <v>373</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -61623,7 +61622,7 @@
         <v>374</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -61637,7 +61636,7 @@
         <v>375</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
@@ -62216,7 +62215,7 @@
         <v>439</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>71</v>
@@ -62251,7 +62250,7 @@
         <v>440</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>71</v>
@@ -62271,7 +62270,7 @@
         <v>441</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>71</v>
@@ -62291,7 +62290,7 @@
         <v>442</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>71</v>
@@ -62445,7 +62444,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>rearing!G2</f>
@@ -62510,7 +62509,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B2">
         <f>AVERAGE(rearing!G3:G196)</f>
@@ -62585,11 +62584,11 @@
   </sheetPr>
   <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N104" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q131" sqref="Q131"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62608,29 +62607,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" x14ac:dyDescent="0.3">
-      <c r="J1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96" t="s">
+      <c r="J1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96" t="s">
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="96"/>
+      <c r="Z1" s="98"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -62661,19 +62660,19 @@
         <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>483</v>
@@ -62685,13 +62684,13 @@
         <v>485</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R2" s="14" t="s">
         <v>488</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>490</v>
@@ -62712,7 +62711,7 @@
         <v>494</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -67140,38 +67139,38 @@
   <sheetData>
     <row r="1" spans="1:39" ht="24" x14ac:dyDescent="0.3">
       <c r="F1" s="7"/>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
-      <c r="P1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96" t="s">
+      <c r="P1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96" t="s">
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
     </row>
     <row r="2" spans="1:39" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -67186,85 +67185,85 @@
         <v>Treatment_ID</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>570</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="36" t="s">
         <v>571</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="I2" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="M2" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="58" t="s">
         <v>578</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="O2" s="58" t="s">
         <v>579</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="P2" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="Q2" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="R2" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="S2" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="T2" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="U2" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="W2" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="X2" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="Y2" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="Z2" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="AA2" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="AB2" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AC2" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AD2" s="22" t="s">
         <v>594</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>596</v>
       </c>
       <c r="AE2" s="22" t="s">
         <v>419</v>
